--- a/FINDING MINIMUM OF A FUNCTION.xlsx
+++ b/FINDING MINIMUM OF A FUNCTION.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="FUNCTION" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>f(x) = ax2 + bx + c</t>
   </si>
@@ -69,10 +69,10 @@
     <t>Finding the minimum of the function: f(x) = ax2 + bx + c</t>
   </si>
   <si>
-    <t>int his example 2*x2+2*x+10</t>
+    <t>DELTA WEIGHT</t>
   </si>
   <si>
-    <t>DELTA WEIGHT</t>
+    <t>in his example 2*x2+2*x+10</t>
   </si>
 </sst>
 </file>
@@ -102,7 +102,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,8 +169,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -193,18 +211,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -220,8 +323,21 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -257,6 +373,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -270,7 +387,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>FUNCTION!$E$5</c:f>
+              <c:f>FUNCTION!$E$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -279,9 +396,143 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FUNCTION!$C$7:$C$48</c:f>
+              <c:strCache>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>X</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FUNCTION!$E$6:$E$46</c:f>
+              <c:f>FUNCTION!$E$8:$E$48</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="41"/>
@@ -423,11 +674,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="163574912"/>
-        <c:axId val="163576448"/>
+        <c:axId val="169141376"/>
+        <c:axId val="169142912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163574912"/>
+        <c:axId val="169141376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -436,7 +687,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163576448"/>
+        <c:crossAx val="169142912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -444,7 +695,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163576448"/>
+        <c:axId val="169142912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -455,13 +706,384 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163574912"/>
+        <c:crossAx val="169141376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="bg-BG"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FUNCTION!$K$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>derivative</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FUNCTION!$C$7:$C$48</c:f>
+              <c:strCache>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>X</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FUNCTION!$K$8:$K$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>-38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="5947392"/>
+        <c:axId val="5948928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="5947392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="5948928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="5948928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="5947392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -480,16 +1102,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -503,6 +1125,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -798,422 +1450,604 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:O46"/>
+  <dimension ref="C2:U48"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="2" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="P2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>2</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="4">
+        <v>2</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="E3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="22"/>
+      <c r="K3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="L3" s="27"/>
+      <c r="M3" s="28"/>
+    </row>
+    <row r="4" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="K4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L4" s="16"/>
+      <c r="M4" s="17"/>
+    </row>
+    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="K5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="19"/>
+      <c r="M5" s="20"/>
+    </row>
+    <row r="7" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C8" s="24">
+        <v>-10</v>
+      </c>
+      <c r="E8" s="24">
+        <f>Q$2*C8*C8+S$2*C8+U$2</f>
+        <v>190</v>
+      </c>
+      <c r="K8" s="23">
+        <f>2*Q$2*C8+S$2</f>
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C9" s="24">
+        <v>-9.5</v>
+      </c>
+      <c r="E9" s="24">
+        <f>Q$2*C9*C9+S$2*C9+U$2</f>
+        <v>171.5</v>
+      </c>
+      <c r="K9" s="23">
+        <f t="shared" ref="K9:K48" si="0">2*Q$2*C9+S$2</f>
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="10" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C10" s="24">
+        <v>-9</v>
+      </c>
+      <c r="E10" s="24">
+        <f>Q$2*C10*C10+S$2*C10+U$2</f>
+        <v>154</v>
+      </c>
+      <c r="K10" s="23">
+        <f t="shared" si="0"/>
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="11" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C11" s="24">
+        <v>-8.5</v>
+      </c>
+      <c r="E11" s="24">
+        <f>Q$2*C11*C11+S$2*C11+U$2</f>
+        <v>137.5</v>
+      </c>
+      <c r="K11" s="23">
+        <f t="shared" si="0"/>
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="12" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C12" s="24">
+        <v>-8</v>
+      </c>
+      <c r="E12" s="24">
+        <f>Q$2*C12*C12+S$2*C12+U$2</f>
+        <v>122</v>
+      </c>
+      <c r="K12" s="23">
+        <f t="shared" si="0"/>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C13" s="24">
+        <v>-7.5</v>
+      </c>
+      <c r="E13" s="24">
+        <f>Q$2*C13*C13+S$2*C13+U$2</f>
+        <v>107.5</v>
+      </c>
+      <c r="K13" s="23">
+        <f t="shared" si="0"/>
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C14" s="24">
+        <v>-7</v>
+      </c>
+      <c r="E14" s="24">
+        <f>Q$2*C14*C14+S$2*C14+U$2</f>
+        <v>94</v>
+      </c>
+      <c r="K14" s="23">
+        <f t="shared" si="0"/>
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="15" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C15" s="24">
+        <v>-6.5</v>
+      </c>
+      <c r="E15" s="24">
+        <f>Q$2*C15*C15+S$2*C15+U$2</f>
+        <v>81.5</v>
+      </c>
+      <c r="K15" s="23">
+        <f t="shared" si="0"/>
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C16" s="24">
+        <v>-6</v>
+      </c>
+      <c r="E16" s="24">
+        <f>Q$2*C16*C16+S$2*C16+U$2</f>
+        <v>70</v>
+      </c>
+      <c r="K16" s="23">
+        <f t="shared" si="0"/>
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C17" s="24">
+        <v>-5.5</v>
+      </c>
+      <c r="E17" s="24">
+        <f>Q$2*C17*C17+S$2*C17+U$2</f>
+        <v>59.5</v>
+      </c>
+      <c r="K17" s="23">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C18" s="24">
+        <v>-5</v>
+      </c>
+      <c r="E18" s="24">
+        <f>Q$2*C18*C18+S$2*C18+U$2</f>
+        <v>50</v>
+      </c>
+      <c r="K18" s="23">
+        <f t="shared" si="0"/>
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C19" s="24">
+        <v>-4.5</v>
+      </c>
+      <c r="E19" s="24">
+        <f>Q$2*C19*C19+S$2*C19+U$2</f>
+        <v>41.5</v>
+      </c>
+      <c r="K19" s="23">
+        <f t="shared" si="0"/>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C20" s="24">
+        <v>-4</v>
+      </c>
+      <c r="E20" s="24">
+        <f>Q$2*C20*C20+S$2*C20+U$2</f>
+        <v>34</v>
+      </c>
+      <c r="K20" s="23">
+        <f t="shared" si="0"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C21" s="24">
+        <v>-3.5</v>
+      </c>
+      <c r="E21" s="24">
+        <f>Q$2*C21*C21+S$2*C21+U$2</f>
+        <v>27.5</v>
+      </c>
+      <c r="K21" s="23">
+        <f t="shared" si="0"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C22" s="24">
+        <v>-3</v>
+      </c>
+      <c r="E22" s="24">
+        <f>Q$2*C22*C22+S$2*C22+U$2</f>
+        <v>22</v>
+      </c>
+      <c r="K22" s="23">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C23" s="24">
+        <v>-2.5</v>
+      </c>
+      <c r="E23" s="24">
+        <f>Q$2*C23*C23+S$2*C23+U$2</f>
+        <v>17.5</v>
+      </c>
+      <c r="K23" s="23">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C24" s="24">
+        <v>-2</v>
+      </c>
+      <c r="E24" s="24">
+        <f>Q$2*C24*C24+S$2*C24+U$2</f>
+        <v>14</v>
+      </c>
+      <c r="K24" s="23">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C25" s="24">
+        <v>-1.5</v>
+      </c>
+      <c r="E25" s="24">
+        <f>Q$2*C25*C25+S$2*C25+U$2</f>
+        <v>11.5</v>
+      </c>
+      <c r="K25" s="23">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C26" s="24">
+        <v>-1</v>
+      </c>
+      <c r="E26" s="24">
+        <f>Q$2*C26*C26+S$2*C26+U$2</f>
+        <v>10</v>
+      </c>
+      <c r="K26" s="23">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C27" s="14">
+        <v>-0.5</v>
+      </c>
+      <c r="E27" s="14">
+        <f>Q$2*C27*C27+S$2*C27+U$2</f>
+        <v>9.5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C28" s="24">
+        <v>0</v>
+      </c>
+      <c r="E28" s="24">
+        <f>Q$2*C28*C28+S$2*C28+U$2</f>
+        <v>10</v>
+      </c>
+      <c r="K28" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C29" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="24">
+        <f>Q$2*C29*C29+S$2*C29+U$2</f>
+        <v>11.5</v>
+      </c>
+      <c r="K29" s="23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C30" s="24">
+        <v>1</v>
+      </c>
+      <c r="E30" s="24">
+        <f>Q$2*C30*C30+S$2*C30+U$2</f>
+        <v>14</v>
+      </c>
+      <c r="K30" s="23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C31" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="E31" s="24">
+        <f>Q$2*C31*C31+S$2*C31+U$2</f>
+        <v>17.5</v>
+      </c>
+      <c r="K31" s="23">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C32" s="24">
+        <v>2</v>
+      </c>
+      <c r="E32" s="24">
+        <f>Q$2*C32*C32+S$2*C32+U$2</f>
+        <v>22</v>
+      </c>
+      <c r="K32" s="23">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C33" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="E33" s="24">
+        <f>Q$2*C33*C33+S$2*C33+U$2</f>
+        <v>27.5</v>
+      </c>
+      <c r="K33" s="23">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C34" s="24">
         <v>3</v>
       </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="E34" s="24">
+        <f>Q$2*C34*C34+S$2*C34+U$2</f>
+        <v>34</v>
+      </c>
+      <c r="K34" s="23">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C35" s="24">
+        <v>3.5</v>
+      </c>
+      <c r="E35" s="24">
+        <f>Q$2*C35*C35+S$2*C35+U$2</f>
+        <v>41.5</v>
+      </c>
+      <c r="K35" s="23">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C36" s="24">
         <v>4</v>
       </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="E36" s="24">
+        <f>Q$2*C36*C36+S$2*C36+U$2</f>
+        <v>50</v>
+      </c>
+      <c r="K36" s="23">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C37" s="24">
+        <v>4.5</v>
+      </c>
+      <c r="E37" s="24">
+        <f>Q$2*C37*C37+S$2*C37+U$2</f>
+        <v>59.5</v>
+      </c>
+      <c r="K37" s="23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C38" s="24">
         <v>5</v>
       </c>
-      <c r="O3">
+      <c r="E38" s="24">
+        <f>Q$2*C38*C38+S$2*C38+U$2</f>
+        <v>70</v>
+      </c>
+      <c r="K38" s="23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C39" s="24">
+        <v>5.5</v>
+      </c>
+      <c r="E39" s="24">
+        <f>Q$2*C39*C39+S$2*C39+U$2</f>
+        <v>81.5</v>
+      </c>
+      <c r="K39" s="23">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C40" s="24">
+        <v>6</v>
+      </c>
+      <c r="E40" s="24">
+        <f>Q$2*C40*C40+S$2*C40+U$2</f>
+        <v>94</v>
+      </c>
+      <c r="K40" s="23">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C41" s="24">
+        <v>6.5</v>
+      </c>
+      <c r="E41" s="24">
+        <f>Q$2*C41*C41+S$2*C41+U$2</f>
+        <v>107.5</v>
+      </c>
+      <c r="K41" s="23">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C42" s="24">
+        <v>7</v>
+      </c>
+      <c r="E42" s="24">
+        <f>Q$2*C42*C42+S$2*C42+U$2</f>
+        <v>122</v>
+      </c>
+      <c r="K42" s="23">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C43" s="24">
+        <v>7.5</v>
+      </c>
+      <c r="E43" s="24">
+        <f>Q$2*C43*C43+S$2*C43+U$2</f>
+        <v>137.5</v>
+      </c>
+      <c r="K43" s="23">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C44" s="24">
+        <v>8</v>
+      </c>
+      <c r="E44" s="24">
+        <f>Q$2*C44*C44+S$2*C44+U$2</f>
+        <v>154</v>
+      </c>
+      <c r="K44" s="23">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C45" s="24">
+        <v>8.5</v>
+      </c>
+      <c r="E45" s="24">
+        <f>Q$2*C45*C45+S$2*C45+U$2</f>
+        <v>171.5</v>
+      </c>
+      <c r="K45" s="23">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C46" s="24">
+        <v>9</v>
+      </c>
+      <c r="E46" s="24">
+        <f>Q$2*C46*C46+S$2*C46+U$2</f>
+        <v>190</v>
+      </c>
+      <c r="K46" s="23">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C47" s="24">
+        <v>9.5</v>
+      </c>
+      <c r="E47" s="24">
+        <f>Q$2*C47*C47+S$2*C47+U$2</f>
+        <v>209.5</v>
+      </c>
+      <c r="K47" s="23">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C48" s="24">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="1">
-        <v>-10</v>
-      </c>
-      <c r="E6" s="1">
-        <f>K$3*C6*C6+M$3*C6+O$3</f>
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C7" s="1">
-        <v>-9.5</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" ref="E7:E46" si="0">K$3*C7*C7+M$3*C7+O$3</f>
-        <v>171.5</v>
-      </c>
-    </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C8" s="1">
-        <v>-9</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C9" s="1">
-        <v>-8.5</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>137.5</v>
-      </c>
-    </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C10" s="1">
-        <v>-8</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="1">
-        <v>-7.5</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>107.5</v>
-      </c>
-    </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C12" s="1">
-        <v>-7</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C13" s="1">
-        <v>-6.5</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="0"/>
-        <v>81.5</v>
-      </c>
-    </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C14" s="1">
-        <v>-6</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C15" s="1">
-        <v>-5.5</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="0"/>
-        <v>59.5</v>
-      </c>
-    </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C16" s="1">
-        <v>-5</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="1">
-        <v>-4.5</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="0"/>
-        <v>41.5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="1">
-        <v>-4</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="1">
-        <v>-3.5</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="0"/>
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="1">
-        <v>-3</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="1">
-        <v>-2.5</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="1">
-        <v>-2</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="1">
-        <v>-1.5</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="0"/>
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E24" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="17">
-        <v>-0.5</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="16">
-        <f t="shared" si="0"/>
-        <v>9.5</v>
-      </c>
-      <c r="G25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E27" s="1">
-        <f t="shared" si="0"/>
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="E29" s="1">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="1">
-        <v>2</v>
-      </c>
-      <c r="E30" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="E31" s="1">
-        <f t="shared" si="0"/>
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="1">
-        <v>3</v>
-      </c>
-      <c r="E32" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="E33" s="1">
-        <f t="shared" si="0"/>
-        <v>41.5</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="1">
-        <v>4</v>
-      </c>
-      <c r="E34" s="1">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="E35" s="1">
-        <f t="shared" si="0"/>
-        <v>59.5</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C36" s="1">
-        <v>5</v>
-      </c>
-      <c r="E36" s="1">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="E37" s="1">
-        <f t="shared" si="0"/>
-        <v>81.5</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C38" s="1">
-        <v>6</v>
-      </c>
-      <c r="E38" s="1">
-        <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="E39" s="1">
-        <f t="shared" si="0"/>
-        <v>107.5</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C40" s="1">
-        <v>7</v>
-      </c>
-      <c r="E40" s="1">
-        <f t="shared" si="0"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C41" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="E41" s="1">
-        <f t="shared" si="0"/>
-        <v>137.5</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C42" s="1">
-        <v>8</v>
-      </c>
-      <c r="E42" s="1">
-        <f t="shared" si="0"/>
-        <v>154</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C43" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="E43" s="1">
-        <f t="shared" si="0"/>
-        <v>171.5</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C44" s="1">
-        <v>9</v>
-      </c>
-      <c r="E44" s="1">
-        <f t="shared" si="0"/>
-        <v>190</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C45" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="E45" s="1">
-        <f t="shared" si="0"/>
-        <v>209.5</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C46" s="1">
-        <v>10</v>
-      </c>
-      <c r="E46" s="1">
-        <f t="shared" si="0"/>
+      <c r="E48" s="24">
+        <f>Q$2*C48*C48+S$2*C48+U$2</f>
         <v>230</v>
+      </c>
+      <c r="K48" s="23">
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1224,10 +2058,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S52"/>
+  <dimension ref="B2:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,27 +2069,27 @@
     <col min="11" max="11" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="4">
         <v>0.1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="D2" s="6"/>
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="4">
         <v>2</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="4">
         <v>2</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="K2" s="4">
@@ -1264,42 +2098,47 @@
       <c r="M2" t="s">
         <v>16</v>
       </c>
-      <c r="S2" t="s">
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="F5" t="s">
-        <v>18</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1</v>
       </c>
@@ -1314,235 +2153,235 @@
         <f>G$2*G8*G8+I$2*G8+K$2</f>
         <v>230</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="9">
         <f>2*G$2*G8+I$2</f>
         <v>42</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="10">
         <f>K8</f>
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <f>B$2*M8</f>
         <v>4.2</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <f>G8-F9</f>
         <v>5.8</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <f>G$2*G9*G9+I$2*G9+K$2</f>
         <v>88.88</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <f t="shared" ref="K9:K38" si="0">2*G$2*G9+I$2</f>
         <v>25.2</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="11">
+      <c r="M9" s="10">
         <f>K9</f>
         <v>25.2</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <f t="shared" ref="F10:F38" si="1">B$2*M9</f>
         <v>2.52</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <f t="shared" ref="G10:G38" si="2">G9-F10</f>
         <v>3.28</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <f t="shared" ref="I10:I38" si="3">G$2*G10*G10+I$2*G10+K$2</f>
         <v>38.076799999999992</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="10">
+      <c r="K10" s="9">
         <f t="shared" si="0"/>
         <v>15.12</v>
       </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="11">
+      <c r="M10" s="10">
         <f t="shared" ref="M10:M38" si="4">K10</f>
         <v>15.12</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <f t="shared" si="1"/>
         <v>1.512</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <f t="shared" si="2"/>
         <v>1.7679999999999998</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <f t="shared" si="3"/>
         <v>19.787647999999997</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <f t="shared" si="0"/>
         <v>9.0719999999999992</v>
       </c>
       <c r="L11" s="1"/>
-      <c r="M11" s="11">
+      <c r="M11" s="10">
         <f t="shared" si="4"/>
         <v>9.0719999999999992</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <f t="shared" si="1"/>
         <v>0.90720000000000001</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <f t="shared" si="2"/>
         <v>0.86079999999999979</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <f t="shared" si="3"/>
         <v>13.203553279999998</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="10">
+      <c r="K12" s="9">
         <f t="shared" si="0"/>
         <v>5.4431999999999992</v>
       </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="11">
+      <c r="M12" s="10">
         <f t="shared" si="4"/>
         <v>5.4431999999999992</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>6</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <f t="shared" si="1"/>
         <v>0.54431999999999992</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <f t="shared" si="2"/>
         <v>0.31647999999999987</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <f t="shared" si="3"/>
         <v>10.8332791808</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="10">
+      <c r="K13" s="9">
         <f t="shared" si="0"/>
         <v>3.2659199999999995</v>
       </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="11">
+      <c r="M13" s="10">
         <f t="shared" si="4"/>
         <v>3.2659199999999995</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>7</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <f t="shared" si="1"/>
         <v>0.32659199999999999</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <f t="shared" si="2"/>
         <v>-1.0112000000000121E-2</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <f t="shared" si="3"/>
         <v>9.9799805050879993</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="10">
+      <c r="K14" s="9">
         <f t="shared" si="0"/>
         <v>1.9595519999999995</v>
       </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="11">
+      <c r="M14" s="10">
         <f t="shared" si="4"/>
         <v>1.9595519999999995</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>8</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <f t="shared" si="1"/>
         <v>0.19595519999999997</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <f t="shared" si="2"/>
         <v>-0.20606720000000009</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <f t="shared" si="3"/>
         <v>9.6727929818316802</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="10">
+      <c r="K15" s="9">
         <f t="shared" si="0"/>
         <v>1.1757311999999995</v>
       </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="11">
+      <c r="M15" s="10">
         <f t="shared" si="4"/>
         <v>1.1757311999999995</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>9</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <f t="shared" si="1"/>
         <v>0.11757311999999996</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <f t="shared" si="2"/>
         <v>-0.32364032000000004</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="9">
+      <c r="I16" s="8">
         <f t="shared" si="3"/>
         <v>9.5622054734594055</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="10">
+      <c r="K16" s="9">
         <f t="shared" si="0"/>
         <v>0.70543871999999985</v>
       </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="11">
+      <c r="M16" s="10">
         <f t="shared" si="4"/>
         <v>0.70543871999999985</v>
       </c>
@@ -1551,26 +2390,26 @@
       <c r="B17">
         <v>10</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <f t="shared" si="1"/>
         <v>7.0543871999999994E-2</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <f t="shared" si="2"/>
         <v>-0.39418419200000004</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <f t="shared" si="3"/>
         <v>9.5223939704453855</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="10">
+      <c r="K17" s="9">
         <f t="shared" si="0"/>
         <v>0.42326323199999982</v>
       </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="11">
+      <c r="M17" s="10">
         <f t="shared" si="4"/>
         <v>0.42326323199999982</v>
       </c>
@@ -1579,26 +2418,26 @@
       <c r="B18">
         <v>11</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <f t="shared" si="1"/>
         <v>4.2326323199999988E-2</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <f t="shared" si="2"/>
         <v>-0.43651051520000006</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <f t="shared" si="3"/>
         <v>9.5080618293603383</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="10">
+      <c r="K18" s="9">
         <f t="shared" si="0"/>
         <v>0.25395793919999976</v>
       </c>
       <c r="L18" s="1"/>
-      <c r="M18" s="11">
+      <c r="M18" s="10">
         <f t="shared" si="4"/>
         <v>0.25395793919999976</v>
       </c>
@@ -1607,26 +2446,26 @@
       <c r="B19">
         <v>12</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <f t="shared" si="1"/>
         <v>2.5395793919999979E-2</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="14">
         <f t="shared" si="2"/>
         <v>-0.46190630912000002</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="9">
+      <c r="I19" s="8">
         <f t="shared" si="3"/>
         <v>9.5029022585697227</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="10">
+      <c r="K19" s="9">
         <f t="shared" si="0"/>
         <v>0.1523747635199999</v>
       </c>
       <c r="L19" s="1"/>
-      <c r="M19" s="11">
+      <c r="M19" s="10">
         <f t="shared" si="4"/>
         <v>0.1523747635199999</v>
       </c>
@@ -1635,26 +2474,26 @@
       <c r="B20">
         <v>13</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <f t="shared" si="1"/>
         <v>1.5237476351999991E-2</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="14">
         <f t="shared" si="2"/>
         <v>-0.47714378547200004</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="9">
+      <c r="I20" s="8">
         <f t="shared" si="3"/>
         <v>9.5010448130851</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="10">
+      <c r="K20" s="9">
         <f t="shared" si="0"/>
         <v>9.1424858111999852E-2</v>
       </c>
       <c r="L20" s="1"/>
-      <c r="M20" s="11">
+      <c r="M20" s="10">
         <f t="shared" si="4"/>
         <v>9.1424858111999852E-2</v>
       </c>
@@ -1663,26 +2502,26 @@
       <c r="B21">
         <v>14</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <f t="shared" si="1"/>
         <v>9.1424858111999862E-3</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="14">
         <f t="shared" si="2"/>
         <v>-0.48628627128320001</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="9">
+      <c r="I21" s="8">
         <f t="shared" si="3"/>
         <v>9.5003761327106364</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="10">
+      <c r="K21" s="9">
         <f t="shared" si="0"/>
         <v>5.4854914867199955E-2</v>
       </c>
       <c r="L21" s="1"/>
-      <c r="M21" s="11">
+      <c r="M21" s="10">
         <f t="shared" si="4"/>
         <v>5.4854914867199955E-2</v>
       </c>
@@ -1691,26 +2530,26 @@
       <c r="B22">
         <v>15</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="7">
         <f t="shared" si="1"/>
         <v>5.4854914867199962E-3</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="14">
         <f t="shared" si="2"/>
         <v>-0.49177176276992002</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="9">
+      <c r="I22" s="8">
         <f t="shared" si="3"/>
         <v>9.5001354077758293</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="10">
+      <c r="K22" s="9">
         <f t="shared" si="0"/>
         <v>3.2912948920319929E-2</v>
       </c>
       <c r="L22" s="1"/>
-      <c r="M22" s="11">
+      <c r="M22" s="14">
         <f t="shared" si="4"/>
         <v>3.2912948920319929E-2</v>
       </c>
@@ -1719,26 +2558,26 @@
       <c r="B23">
         <v>16</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="7">
         <f t="shared" si="1"/>
         <v>3.2912948920319931E-3</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="14">
         <f t="shared" si="2"/>
         <v>-0.49506305766195202</v>
       </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="9">
+      <c r="I23" s="8">
         <f t="shared" si="3"/>
         <v>9.5000487467992976</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="10">
+      <c r="K23" s="9">
         <f t="shared" si="0"/>
         <v>1.9747769352191913E-2</v>
       </c>
       <c r="L23" s="1"/>
-      <c r="M23" s="11">
+      <c r="M23" s="14">
         <f t="shared" si="4"/>
         <v>1.9747769352191913E-2</v>
       </c>
@@ -1747,26 +2586,26 @@
       <c r="B24">
         <v>17</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="7">
         <f t="shared" si="1"/>
         <v>1.9747769352191913E-3</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="14">
         <f t="shared" si="2"/>
         <v>-0.49703783459717121</v>
       </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <f t="shared" si="3"/>
         <v>9.5000175488477474</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="10">
+      <c r="K24" s="9">
         <f t="shared" si="0"/>
         <v>1.1848661611315148E-2</v>
       </c>
       <c r="L24" s="1"/>
-      <c r="M24" s="11">
+      <c r="M24" s="14">
         <f t="shared" si="4"/>
         <v>1.1848661611315148E-2</v>
       </c>
@@ -1775,26 +2614,26 @@
       <c r="B25">
         <v>18</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="7">
         <f t="shared" si="1"/>
         <v>1.1848661611315149E-3</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="14">
         <f t="shared" si="2"/>
         <v>-0.49822270075830272</v>
       </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="9">
+      <c r="I25" s="8">
         <f t="shared" si="3"/>
         <v>9.5000063175851892</v>
       </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="10">
+      <c r="K25" s="9">
         <f t="shared" si="0"/>
         <v>7.109196966789133E-3</v>
       </c>
       <c r="L25" s="1"/>
-      <c r="M25" s="11">
+      <c r="M25" s="14">
         <f t="shared" si="4"/>
         <v>7.109196966789133E-3</v>
       </c>
@@ -1803,26 +2642,26 @@
       <c r="B26">
         <v>19</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="7">
         <f t="shared" si="1"/>
         <v>7.109196966789133E-4</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="14">
         <f t="shared" si="2"/>
         <v>-0.49893362045498163</v>
       </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="9">
+      <c r="I26" s="8">
         <f t="shared" si="3"/>
         <v>9.5000022743306687</v>
       </c>
       <c r="J26" s="1"/>
-      <c r="K26" s="10">
+      <c r="K26" s="9">
         <f t="shared" si="0"/>
         <v>4.2655181800734798E-3</v>
       </c>
       <c r="L26" s="1"/>
-      <c r="M26" s="11">
+      <c r="M26" s="14">
         <f t="shared" si="4"/>
         <v>4.2655181800734798E-3</v>
       </c>
@@ -1831,26 +2670,26 @@
       <c r="B27">
         <v>20</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="7">
         <f t="shared" si="1"/>
         <v>4.26551818007348E-4</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="14">
         <f t="shared" si="2"/>
         <v>-0.49936017227298896</v>
       </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="9">
+      <c r="I27" s="8">
         <f t="shared" si="3"/>
         <v>9.500000818759041</v>
       </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="10">
+      <c r="K27" s="9">
         <f t="shared" si="0"/>
         <v>2.5593109080441767E-3</v>
       </c>
       <c r="L27" s="1"/>
-      <c r="M27" s="11">
+      <c r="M27" s="14">
         <f t="shared" si="4"/>
         <v>2.5593109080441767E-3</v>
       </c>
@@ -1859,26 +2698,26 @@
       <c r="B28">
         <v>21</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="7">
         <f t="shared" si="1"/>
         <v>2.5593109080441768E-4</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="14">
         <f t="shared" si="2"/>
         <v>-0.49961610336379336</v>
       </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="9">
+      <c r="I28" s="8">
         <f t="shared" si="3"/>
         <v>9.5000002947532547</v>
       </c>
       <c r="J28" s="1"/>
-      <c r="K28" s="10">
+      <c r="K28" s="9">
         <f t="shared" si="0"/>
         <v>1.5355865448265504E-3</v>
       </c>
       <c r="L28" s="1"/>
-      <c r="M28" s="11">
+      <c r="M28" s="14">
         <f t="shared" si="4"/>
         <v>1.5355865448265504E-3</v>
       </c>
@@ -1887,26 +2726,26 @@
       <c r="B29">
         <v>22</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="7">
         <f t="shared" si="1"/>
         <v>1.5355865448265507E-4</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="14">
         <f t="shared" si="2"/>
         <v>-0.499769662018276</v>
       </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="9">
+      <c r="I29" s="8">
         <f t="shared" si="3"/>
         <v>9.5000001061111714</v>
       </c>
       <c r="J29" s="1"/>
-      <c r="K29" s="10">
+      <c r="K29" s="9">
         <f t="shared" si="0"/>
         <v>9.2135192689601908E-4</v>
       </c>
       <c r="L29" s="1"/>
-      <c r="M29" s="11">
+      <c r="M29" s="14">
         <f t="shared" si="4"/>
         <v>9.2135192689601908E-4</v>
       </c>
@@ -1915,26 +2754,26 @@
       <c r="B30">
         <v>23</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="7">
         <f t="shared" si="1"/>
         <v>9.2135192689601916E-5</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="14">
         <f t="shared" si="2"/>
         <v>-0.49986179721096557</v>
       </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="9">
+      <c r="I30" s="8">
         <f t="shared" si="3"/>
         <v>9.5000000382000209</v>
       </c>
       <c r="J30" s="1"/>
-      <c r="K30" s="10">
+      <c r="K30" s="9">
         <f t="shared" si="0"/>
         <v>5.5281115613770027E-4</v>
       </c>
       <c r="L30" s="1"/>
-      <c r="M30" s="11">
+      <c r="M30" s="14">
         <f t="shared" si="4"/>
         <v>5.5281115613770027E-4</v>
       </c>
@@ -1943,26 +2782,26 @@
       <c r="B31">
         <v>24</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="7">
         <f t="shared" si="1"/>
         <v>5.5281115613770031E-5</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="14">
         <f t="shared" si="2"/>
         <v>-0.49991707832657933</v>
       </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="9">
+      <c r="I31" s="8">
         <f t="shared" si="3"/>
         <v>9.5000000137520075</v>
       </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="10">
+      <c r="K31" s="9">
         <f t="shared" si="0"/>
         <v>3.3168669368266457E-4</v>
       </c>
       <c r="L31" s="1"/>
-      <c r="M31" s="11">
+      <c r="M31" s="14">
         <f t="shared" si="4"/>
         <v>3.3168669368266457E-4</v>
       </c>
@@ -1971,26 +2810,26 @@
       <c r="B32">
         <v>25</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="7">
         <f t="shared" si="1"/>
         <v>3.3168669368266461E-5</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="14">
         <f t="shared" si="2"/>
         <v>-0.49995024699594759</v>
       </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="9">
+      <c r="I32" s="8">
         <f t="shared" si="3"/>
         <v>9.5000000049507225</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="10">
+      <c r="K32" s="9">
         <f t="shared" si="0"/>
         <v>1.9901201620964315E-4</v>
       </c>
       <c r="L32" s="1"/>
-      <c r="M32" s="11">
+      <c r="M32" s="14">
         <f t="shared" si="4"/>
         <v>1.9901201620964315E-4</v>
       </c>
@@ -1999,26 +2838,26 @@
       <c r="B33">
         <v>26</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="7">
         <f t="shared" si="1"/>
         <v>1.9901201620964317E-5</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="14">
         <f t="shared" si="2"/>
         <v>-0.49997014819756858</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="9">
+      <c r="I33" s="8">
         <f t="shared" si="3"/>
         <v>9.5000000017822597</v>
       </c>
       <c r="J33" s="1"/>
-      <c r="K33" s="10">
+      <c r="K33" s="9">
         <f t="shared" si="0"/>
         <v>1.1940720972569707E-4</v>
       </c>
       <c r="L33" s="1"/>
-      <c r="M33" s="11">
+      <c r="M33" s="14">
         <f t="shared" si="4"/>
         <v>1.1940720972569707E-4</v>
       </c>
@@ -2027,26 +2866,26 @@
       <c r="B34">
         <v>27</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="7">
         <f t="shared" si="1"/>
         <v>1.1940720972569709E-5</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="14">
         <f t="shared" si="2"/>
         <v>-0.49998208891854112</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="9">
+      <c r="I34" s="8">
         <f t="shared" si="3"/>
         <v>9.500000000641613</v>
       </c>
       <c r="J34" s="1"/>
-      <c r="K34" s="10">
+      <c r="K34" s="9">
         <f t="shared" si="0"/>
         <v>7.1644325835507061E-5</v>
       </c>
       <c r="L34" s="1"/>
-      <c r="M34" s="11">
+      <c r="M34" s="14">
         <f t="shared" si="4"/>
         <v>7.1644325835507061E-5</v>
       </c>
@@ -2055,26 +2894,26 @@
       <c r="B35">
         <v>28</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="7">
         <f t="shared" si="1"/>
         <v>7.1644325835507066E-6</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="14">
         <f t="shared" si="2"/>
         <v>-0.49998925335112465</v>
       </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="9">
+      <c r="I35" s="8">
         <f t="shared" si="3"/>
         <v>9.5000000002309815</v>
       </c>
       <c r="J35" s="1"/>
-      <c r="K35" s="10">
+      <c r="K35" s="9">
         <f t="shared" si="0"/>
         <v>4.2986595501393055E-5</v>
       </c>
       <c r="L35" s="1"/>
-      <c r="M35" s="11">
+      <c r="M35" s="14">
         <f t="shared" si="4"/>
         <v>4.2986595501393055E-5</v>
       </c>
@@ -2083,26 +2922,26 @@
       <c r="B36">
         <v>29</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="7">
         <f t="shared" si="1"/>
         <v>4.2986595501393056E-6</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="14">
         <f t="shared" si="2"/>
         <v>-0.4999935520106748</v>
       </c>
       <c r="H36" s="1"/>
-      <c r="I36" s="9">
+      <c r="I36" s="8">
         <f t="shared" si="3"/>
         <v>9.500000000083153</v>
       </c>
       <c r="J36" s="1"/>
-      <c r="K36" s="10">
+      <c r="K36" s="9">
         <f t="shared" si="0"/>
         <v>2.5791957300791424E-5</v>
       </c>
       <c r="L36" s="1"/>
-      <c r="M36" s="11">
+      <c r="M36" s="14">
         <f t="shared" si="4"/>
         <v>2.5791957300791424E-5</v>
       </c>
@@ -2111,26 +2950,26 @@
       <c r="B37">
         <v>30</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="7">
         <f t="shared" si="1"/>
         <v>2.5791957300791427E-6</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G37" s="14">
         <f t="shared" si="2"/>
         <v>-0.4999961312064049</v>
       </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="9">
+      <c r="I37" s="8">
         <f t="shared" si="3"/>
         <v>9.5000000000299352</v>
       </c>
       <c r="J37" s="1"/>
-      <c r="K37" s="10">
+      <c r="K37" s="9">
         <f t="shared" si="0"/>
         <v>1.5475174380386036E-5</v>
       </c>
       <c r="L37" s="1"/>
-      <c r="M37" s="11">
+      <c r="M37" s="14">
         <f t="shared" si="4"/>
         <v>1.5475174380386036E-5</v>
       </c>
@@ -2139,26 +2978,26 @@
       <c r="B38">
         <v>31</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="7">
         <f t="shared" si="1"/>
         <v>1.5475174380386037E-6</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="14">
         <f t="shared" si="2"/>
         <v>-0.49999767872384293</v>
       </c>
       <c r="H38" s="1"/>
-      <c r="I38" s="9">
+      <c r="I38" s="8">
         <f t="shared" si="3"/>
         <v>9.5000000000107772</v>
       </c>
       <c r="J38" s="1"/>
-      <c r="K38" s="10">
+      <c r="K38" s="9">
         <f t="shared" si="0"/>
         <v>9.2851046282760308E-6</v>
       </c>
       <c r="L38" s="1"/>
-      <c r="M38" s="11">
+      <c r="M38" s="14">
         <f t="shared" si="4"/>
         <v>9.2851046282760308E-6</v>
       </c>
@@ -2167,26 +3006,26 @@
       <c r="B39">
         <v>32</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="7">
         <f t="shared" ref="F39:F52" si="5">B$2*M38</f>
         <v>9.285104628276031E-7</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="14">
         <f t="shared" ref="G39:G52" si="6">G38-F39</f>
         <v>-0.49999860723430578</v>
       </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="9">
+      <c r="I39" s="8">
         <f t="shared" ref="I39:I52" si="7">G$2*G39*G39+I$2*G39+K$2</f>
         <v>9.5000000000038796</v>
       </c>
       <c r="J39" s="1"/>
-      <c r="K39" s="10">
+      <c r="K39" s="9">
         <f t="shared" ref="K39:K52" si="8">2*G$2*G39+I$2</f>
         <v>5.5710627768768006E-6</v>
       </c>
       <c r="L39" s="1"/>
-      <c r="M39" s="11">
+      <c r="M39" s="14">
         <f t="shared" ref="M39:M52" si="9">K39</f>
         <v>5.5710627768768006E-6</v>
       </c>
@@ -2195,26 +3034,26 @@
       <c r="B40">
         <v>33</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="7">
         <f t="shared" si="5"/>
         <v>5.5710627768768004E-7</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G40" s="14">
         <f t="shared" si="6"/>
         <v>-0.49999916434058345</v>
       </c>
       <c r="H40" s="1"/>
-      <c r="I40" s="9">
+      <c r="I40" s="8">
         <f t="shared" si="7"/>
         <v>9.5000000000013962</v>
       </c>
       <c r="J40" s="1"/>
-      <c r="K40" s="10">
+      <c r="K40" s="9">
         <f t="shared" si="8"/>
         <v>3.3426376662148982E-6</v>
       </c>
       <c r="L40" s="1"/>
-      <c r="M40" s="11">
+      <c r="M40" s="14">
         <f t="shared" si="9"/>
         <v>3.3426376662148982E-6</v>
       </c>
@@ -2223,26 +3062,26 @@
       <c r="B41">
         <v>34</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="7">
         <f t="shared" si="5"/>
         <v>3.3426376662148986E-7</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G41" s="14">
         <f t="shared" si="6"/>
         <v>-0.49999949860435006</v>
       </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="9">
+      <c r="I41" s="8">
         <f t="shared" si="7"/>
         <v>9.5000000000005027</v>
       </c>
       <c r="J41" s="1"/>
-      <c r="K41" s="10">
+      <c r="K41" s="9">
         <f t="shared" si="8"/>
         <v>2.0055825997733479E-6</v>
       </c>
       <c r="L41" s="1"/>
-      <c r="M41" s="11">
+      <c r="M41" s="14">
         <f t="shared" si="9"/>
         <v>2.0055825997733479E-6</v>
       </c>
@@ -2251,26 +3090,26 @@
       <c r="B42">
         <v>35</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="7">
         <f t="shared" si="5"/>
         <v>2.0055825997733481E-7</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G42" s="14">
         <f t="shared" si="6"/>
         <v>-0.49999969916261006</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="9">
+      <c r="I42" s="8">
         <f t="shared" si="7"/>
         <v>9.5000000000001812</v>
       </c>
       <c r="J42" s="1"/>
-      <c r="K42" s="10">
+      <c r="K42" s="9">
         <f t="shared" si="8"/>
         <v>1.2033495597751909E-6</v>
       </c>
       <c r="L42" s="1"/>
-      <c r="M42" s="11">
+      <c r="M42" s="14">
         <f t="shared" si="9"/>
         <v>1.2033495597751909E-6</v>
       </c>
@@ -2279,26 +3118,26 @@
       <c r="B43">
         <v>36</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="7">
         <f t="shared" si="5"/>
         <v>1.2033495597751908E-7</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G43" s="14">
         <f t="shared" si="6"/>
         <v>-0.49999981949756606</v>
       </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="9">
+      <c r="I43" s="8">
         <f t="shared" si="7"/>
         <v>9.5000000000000657</v>
       </c>
       <c r="J43" s="1"/>
-      <c r="K43" s="10">
+      <c r="K43" s="9">
         <f t="shared" si="8"/>
         <v>7.2200973577629668E-7</v>
       </c>
       <c r="L43" s="1"/>
-      <c r="M43" s="11">
+      <c r="M43" s="14">
         <f t="shared" si="9"/>
         <v>7.2200973577629668E-7</v>
       </c>
@@ -2307,26 +3146,26 @@
       <c r="B44">
         <v>37</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F44" s="7">
         <f t="shared" si="5"/>
         <v>7.2200973577629679E-8</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G44" s="14">
         <f t="shared" si="6"/>
         <v>-0.49999989169853964</v>
       </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="9">
+      <c r="I44" s="8">
         <f t="shared" si="7"/>
         <v>9.5000000000000231</v>
       </c>
       <c r="J44" s="1"/>
-      <c r="K44" s="10">
+      <c r="K44" s="9">
         <f t="shared" si="8"/>
         <v>4.3320584142136909E-7</v>
       </c>
       <c r="L44" s="1"/>
-      <c r="M44" s="11">
+      <c r="M44" s="14">
         <f t="shared" si="9"/>
         <v>4.3320584142136909E-7</v>
       </c>
@@ -2335,26 +3174,26 @@
       <c r="B45">
         <v>38</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="7">
         <f t="shared" si="5"/>
         <v>4.3320584142136914E-8</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="14">
         <f t="shared" si="6"/>
         <v>-0.49999993501912376</v>
       </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="9">
+      <c r="I45" s="8">
         <f t="shared" si="7"/>
         <v>9.5000000000000089</v>
       </c>
       <c r="J45" s="1"/>
-      <c r="K45" s="10">
+      <c r="K45" s="9">
         <f t="shared" si="8"/>
         <v>2.5992350494163929E-7</v>
       </c>
       <c r="L45" s="1"/>
-      <c r="M45" s="11">
+      <c r="M45" s="14">
         <f t="shared" si="9"/>
         <v>2.5992350494163929E-7</v>
       </c>
@@ -2363,26 +3202,26 @@
       <c r="B46">
         <v>39</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="7">
         <f t="shared" si="5"/>
         <v>2.5992350494163929E-8</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G46" s="14">
         <f t="shared" si="6"/>
         <v>-0.49999996101147426</v>
       </c>
       <c r="H46" s="1"/>
-      <c r="I46" s="9">
+      <c r="I46" s="8">
         <f t="shared" si="7"/>
         <v>9.5000000000000036</v>
       </c>
       <c r="J46" s="1"/>
-      <c r="K46" s="10">
+      <c r="K46" s="9">
         <f t="shared" si="8"/>
         <v>1.5595410296498358E-7</v>
       </c>
       <c r="L46" s="1"/>
-      <c r="M46" s="11">
+      <c r="M46" s="14">
         <f t="shared" si="9"/>
         <v>1.5595410296498358E-7</v>
       </c>
@@ -2391,26 +3230,26 @@
       <c r="B47">
         <v>40</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F47" s="7">
         <f t="shared" si="5"/>
         <v>1.5595410296498358E-8</v>
       </c>
-      <c r="G47" s="15">
+      <c r="G47" s="14">
         <f t="shared" si="6"/>
         <v>-0.49999997660688456</v>
       </c>
       <c r="H47" s="1"/>
-      <c r="I47" s="9">
+      <c r="I47" s="8">
         <f t="shared" si="7"/>
         <v>9.5000000000000018</v>
       </c>
       <c r="J47" s="1"/>
-      <c r="K47" s="10">
+      <c r="K47" s="9">
         <f t="shared" si="8"/>
         <v>9.3572461778990146E-8</v>
       </c>
       <c r="L47" s="1"/>
-      <c r="M47" s="11">
+      <c r="M47" s="14">
         <f t="shared" si="9"/>
         <v>9.3572461778990146E-8</v>
       </c>
@@ -2419,26 +3258,26 @@
       <c r="B48">
         <v>41</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F48" s="7">
         <f t="shared" si="5"/>
         <v>9.3572461778990159E-9</v>
       </c>
-      <c r="G48" s="15">
+      <c r="G48" s="14">
         <f t="shared" si="6"/>
         <v>-0.49999998596413076</v>
       </c>
       <c r="H48" s="1"/>
-      <c r="I48" s="9">
+      <c r="I48" s="8">
         <f t="shared" si="7"/>
         <v>9.5</v>
       </c>
       <c r="J48" s="1"/>
-      <c r="K48" s="10">
+      <c r="K48" s="9">
         <f t="shared" si="8"/>
         <v>5.6143476978576246E-8</v>
       </c>
       <c r="L48" s="1"/>
-      <c r="M48" s="11">
+      <c r="M48" s="14">
         <f t="shared" si="9"/>
         <v>5.6143476978576246E-8</v>
       </c>
@@ -2447,26 +3286,26 @@
       <c r="B49">
         <v>42</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="7">
         <f t="shared" si="5"/>
         <v>5.6143476978576252E-9</v>
       </c>
-      <c r="G49" s="15">
+      <c r="G49" s="14">
         <f t="shared" si="6"/>
         <v>-0.49999999157847846</v>
       </c>
       <c r="H49" s="1"/>
-      <c r="I49" s="9">
+      <c r="I49" s="8">
         <f t="shared" si="7"/>
         <v>9.5</v>
       </c>
       <c r="J49" s="1"/>
-      <c r="K49" s="10">
+      <c r="K49" s="9">
         <f t="shared" si="8"/>
         <v>3.3686086142736826E-8</v>
       </c>
       <c r="L49" s="1"/>
-      <c r="M49" s="11">
+      <c r="M49" s="14">
         <f t="shared" si="9"/>
         <v>3.3686086142736826E-8</v>
       </c>
@@ -2475,26 +3314,26 @@
       <c r="B50">
         <v>43</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F50" s="7">
         <f t="shared" si="5"/>
         <v>3.3686086142736826E-9</v>
       </c>
-      <c r="G50" s="15">
+      <c r="G50" s="14">
         <f t="shared" si="6"/>
         <v>-0.49999999494708708</v>
       </c>
       <c r="H50" s="1"/>
-      <c r="I50" s="9">
+      <c r="I50" s="8">
         <f t="shared" si="7"/>
         <v>9.5</v>
       </c>
       <c r="J50" s="1"/>
-      <c r="K50" s="10">
+      <c r="K50" s="9">
         <f t="shared" si="8"/>
         <v>2.0211651685642096E-8</v>
       </c>
       <c r="L50" s="1"/>
-      <c r="M50" s="11">
+      <c r="M50" s="14">
         <f t="shared" si="9"/>
         <v>2.0211651685642096E-8</v>
       </c>
@@ -2503,26 +3342,26 @@
       <c r="B51">
         <v>44</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F51" s="7">
         <f t="shared" si="5"/>
         <v>2.0211651685642098E-9</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G51" s="14">
         <f t="shared" si="6"/>
         <v>-0.49999999696825226</v>
       </c>
       <c r="H51" s="1"/>
-      <c r="I51" s="9">
+      <c r="I51" s="8">
         <f t="shared" si="7"/>
         <v>9.5</v>
       </c>
       <c r="J51" s="1"/>
-      <c r="K51" s="10">
+      <c r="K51" s="9">
         <f t="shared" si="8"/>
         <v>1.2126990966976336E-8</v>
       </c>
       <c r="L51" s="1"/>
-      <c r="M51" s="11">
+      <c r="M51" s="14">
         <f t="shared" si="9"/>
         <v>1.2126990966976336E-8</v>
       </c>
@@ -2531,26 +3370,26 @@
       <c r="B52">
         <v>45</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F52" s="7">
         <f t="shared" si="5"/>
         <v>1.2126990966976337E-9</v>
       </c>
-      <c r="G52" s="15">
+      <c r="G52" s="14">
         <f t="shared" si="6"/>
         <v>-0.49999999818095137</v>
       </c>
       <c r="H52" s="1"/>
-      <c r="I52" s="9">
+      <c r="I52" s="8">
         <f t="shared" si="7"/>
         <v>9.5</v>
       </c>
       <c r="J52" s="1"/>
-      <c r="K52" s="10">
+      <c r="K52" s="9">
         <f t="shared" si="8"/>
         <v>7.2761945357768809E-9</v>
       </c>
       <c r="L52" s="1"/>
-      <c r="M52" s="11">
+      <c r="M52" s="14">
         <f t="shared" si="9"/>
         <v>7.2761945357768809E-9</v>
       </c>

--- a/FINDING MINIMUM OF A FUNCTION.xlsx
+++ b/FINDING MINIMUM OF A FUNCTION.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="FUNCTION" sheetId="1" r:id="rId1"/>
     <sheet name="BatchGradientDescent" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="WITH_BIG_ALPHA" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>f(x) = ax2 + bx + c</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>in his example 2*x2+2*x+10</t>
+  </si>
+  <si>
+    <t>HERE WE SEE AT BIG APLPHA HOW THE ALGORITHM JUMP OVER THE MINIMUM OF THE FUNCTION TILL FIND THE MINIMUM!</t>
   </si>
 </sst>
 </file>
@@ -301,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -338,16 +341,41 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF66FF"/>
       <color rgb="FF00FF00"/>
-      <color rgb="FFFF66FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1098,6 +1126,696 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="bg-BG"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>WITH_BIG_ALPHA!$G$9:$G$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.9000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2200000000000024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.876000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8008000000000024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.9406400000000019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2525120000000021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.702009600000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2616076800000018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.9092861440000015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.62742891520000121</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.4019431321600009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.22155450572800084</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.0772436045824008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.8205116334079303E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.86943590693273654</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.20445127445381073</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.73643898043695144</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.31084881565043881</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.65132094747964897</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.37894324201628082</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.59684540638697536</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.4225236748904197</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.56198106008766424</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.45041515192986858</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.53966787845610509</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.46826569723511591</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.52538744221190725</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.47969004623047418</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.5162479630156207</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.48700162958750343</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.51039869632999724</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.49168104293600223</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.50665516565119817</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.49467586747904146</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.50425930601676683</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.49659255518658652</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.50272595585073077</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.49781923531941541</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.50174461174446772</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.49860431060442584</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.50111655151645929</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.49910675878683258</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.50071459297053389</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.49942832562357287</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>WITH_BIG_ALPHA!$H$9:$H$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="45"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>WITH_BIG_ALPHA!$G$9:$G$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.9000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2200000000000024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.876000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8008000000000024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.9406400000000019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2525120000000021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.702009600000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2616076800000018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.9092861440000015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.62742891520000121</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.4019431321600009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.22155450572800084</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.0772436045824008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.8205116334079303E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.86943590693273654</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.20445127445381073</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.73643898043695144</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.31084881565043881</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.65132094747964897</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.37894324201628082</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.59684540638697536</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.4225236748904197</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.56198106008766424</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.45041515192986858</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.53966787845610509</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.46826569723511591</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.52538744221190725</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.47969004623047418</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.5162479630156207</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.48700162958750343</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.51039869632999724</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.49168104293600223</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.50665516565119817</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.49467586747904146</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.50425930601676683</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.49659255518658652</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.50272595585073077</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.49781923531941541</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.50174461174446772</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.49860431060442584</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.50111655151645929</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.49910675878683258</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.50071459297053389</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.49942832562357287</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>WITH_BIG_ALPHA!$I$9:$I$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150.62000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.816800000000057</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.302752000000055</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.493761280000044</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.176007219200031</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.652644620288022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.197692556984336</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.706523236469977</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.472174871340787</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.042191917658103</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.127002827301187</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.541281809472759</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.166420358062567</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.9265090291600426</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.772965778662428</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.6746980983439528</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.6118067829401301</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.5715563410816831</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.545796058292277</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.5293094773070575</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.5187580654765167</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.5120051619049715</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.5076833036191815</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.5049173143162768</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.5031470811624175</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.5020141319439464</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.5012890444441265</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.5008249884442399</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.5005279926043134</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.5003379152667602</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.5002162657707263</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.5001384100932658</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.5000885824596892</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.5000566927742014</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.5000362833754881</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.5000232213603137</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.5000148616705999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.5000095114691838</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.5000060873402781</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.5000038958977786</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.500002493374577</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.5000015957597306</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.5000010212862271</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.5000006536231858</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="219628672"/>
+        <c:axId val="219606016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="219628672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="219606016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="219606016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="219628672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="bg-BG"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10093103182949037"/>
+          <c:y val="2.7196673449526674E-2"/>
+          <c:w val="0.64238862243196804"/>
+          <c:h val="0.91875466690259222"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>WITH_BIG_ALPHA!$I$9:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150.62000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.816800000000057</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.302752000000055</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.493761280000044</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.176007219200031</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.652644620288022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.197692556984336</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.706523236469977</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.472174871340787</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.042191917658103</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.127002827301187</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.541281809472759</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.166420358062567</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.9265090291600426</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="172757376"/>
+        <c:axId val="172758912"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="172757376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="172758912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="172758912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="172757376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1146,6 +1864,71 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1453,7 +2236,7 @@
   <dimension ref="C2:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2058,10 +2841,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M52"/>
+  <dimension ref="B2:O52"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2069,9 +2852,9 @@
     <col min="11" max="11" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>13</v>
@@ -2099,7 +2882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>0.1</v>
       </c>
@@ -2107,7 +2890,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="29">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>17</v>
       </c>
@@ -2115,17 +2903,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="34" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="6" t="s">
@@ -2138,7 +2926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1</v>
       </c>
@@ -2161,1125 +2949,1229 @@
         <f>K8</f>
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O8" s="1">
+        <f>I8-K8</f>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2</v>
       </c>
       <c r="F9" s="7">
         <f>B$2*M8</f>
-        <v>4.2</v>
-      </c>
-      <c r="G9" s="7">
+        <v>12.6</v>
+      </c>
+      <c r="G9" s="33">
         <f>G8-F9</f>
-        <v>5.8</v>
+        <v>-2.5999999999999996</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="8">
         <f>G$2*G9*G9+I$2*G9+K$2</f>
-        <v>88.88</v>
+        <v>18.319999999999997</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="9">
         <f t="shared" ref="K9:K38" si="0">2*G$2*G9+I$2</f>
-        <v>25.2</v>
+        <v>-8.3999999999999986</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="10">
         <f>K9</f>
-        <v>25.2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-8.3999999999999986</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" ref="O9:O21" si="1">I9-K9</f>
+        <v>26.719999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>3</v>
       </c>
       <c r="F10" s="7">
-        <f t="shared" ref="F10:F38" si="1">B$2*M9</f>
-        <v>2.52</v>
-      </c>
-      <c r="G10" s="7">
-        <f t="shared" ref="G10:G38" si="2">G9-F10</f>
-        <v>3.28</v>
+        <f t="shared" ref="F10:F38" si="2">B$2*M9</f>
+        <v>-2.5199999999999996</v>
+      </c>
+      <c r="G10" s="33">
+        <f t="shared" ref="G10:G38" si="3">G9-F10</f>
+        <v>-8.0000000000000071E-2</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="8">
-        <f t="shared" ref="I10:I38" si="3">G$2*G10*G10+I$2*G10+K$2</f>
-        <v>38.076799999999992</v>
+        <f t="shared" ref="I10:I38" si="4">G$2*G10*G10+I$2*G10+K$2</f>
+        <v>9.8528000000000002</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="9">
         <f t="shared" si="0"/>
-        <v>15.12</v>
+        <v>1.6799999999999997</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="10">
-        <f t="shared" ref="M10:M38" si="4">K10</f>
-        <v>15.12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="M10:M38" si="5">K10</f>
+        <v>1.6799999999999997</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="1"/>
+        <v>8.1728000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>4</v>
       </c>
       <c r="F11" s="7">
-        <f t="shared" si="1"/>
-        <v>1.512</v>
-      </c>
-      <c r="G11" s="7">
-        <f t="shared" si="2"/>
-        <v>1.7679999999999998</v>
+        <f t="shared" si="2"/>
+        <v>0.50399999999999989</v>
+      </c>
+      <c r="G11" s="33">
+        <f t="shared" si="3"/>
+        <v>-0.58399999999999996</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="8">
-        <f t="shared" si="3"/>
-        <v>19.787647999999997</v>
+        <f t="shared" si="4"/>
+        <v>9.5141120000000008</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="9">
         <f t="shared" si="0"/>
-        <v>9.0719999999999992</v>
+        <v>-0.33599999999999985</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="10">
-        <f t="shared" si="4"/>
-        <v>9.0719999999999992</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>-0.33599999999999985</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="1"/>
+        <v>9.8501120000000011</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>5</v>
       </c>
       <c r="F12" s="7">
-        <f t="shared" si="1"/>
-        <v>0.90720000000000001</v>
-      </c>
-      <c r="G12" s="7">
-        <f t="shared" si="2"/>
-        <v>0.86079999999999979</v>
+        <f t="shared" si="2"/>
+        <v>-0.10079999999999996</v>
+      </c>
+      <c r="G12" s="33">
+        <f t="shared" si="3"/>
+        <v>-0.48320000000000002</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="8">
-        <f t="shared" si="3"/>
-        <v>13.203553279999998</v>
+        <f t="shared" si="4"/>
+        <v>9.5005644799999995</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="9">
         <f t="shared" si="0"/>
-        <v>5.4431999999999992</v>
+        <v>6.7199999999999926E-2</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="10">
-        <f t="shared" si="4"/>
-        <v>5.4431999999999992</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>6.7199999999999926E-2</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="1"/>
+        <v>9.4333644799999998</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>6</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" si="1"/>
-        <v>0.54431999999999992</v>
-      </c>
-      <c r="G13" s="7">
-        <f t="shared" si="2"/>
-        <v>0.31647999999999987</v>
+        <f t="shared" si="2"/>
+        <v>2.0159999999999977E-2</v>
+      </c>
+      <c r="G13" s="33">
+        <f t="shared" si="3"/>
+        <v>-0.50336000000000003</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="8">
-        <f t="shared" si="3"/>
-        <v>10.8332791808</v>
+        <f t="shared" si="4"/>
+        <v>9.5000225791999995</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="9">
         <f t="shared" si="0"/>
-        <v>3.2659199999999995</v>
+        <v>-1.3440000000000119E-2</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="10">
-        <f t="shared" si="4"/>
-        <v>3.2659199999999995</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>-1.3440000000000119E-2</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="1"/>
+        <v>9.5134625791999987</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>7</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" si="1"/>
-        <v>0.32659199999999999</v>
-      </c>
-      <c r="G14" s="7">
-        <f t="shared" si="2"/>
-        <v>-1.0112000000000121E-2</v>
+        <f t="shared" si="2"/>
+        <v>-4.0320000000000356E-3</v>
+      </c>
+      <c r="G14" s="33">
+        <f t="shared" si="3"/>
+        <v>-0.49932799999999999</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="8">
-        <f t="shared" si="3"/>
-        <v>9.9799805050879993</v>
+        <f t="shared" si="4"/>
+        <v>9.5000009031680008</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="9">
         <f t="shared" si="0"/>
-        <v>1.9595519999999995</v>
+        <v>2.6880000000000237E-3</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="10">
-        <f t="shared" si="4"/>
-        <v>1.9595519999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>2.6880000000000237E-3</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="1"/>
+        <v>9.4973129031680017</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>8</v>
       </c>
       <c r="F15" s="7">
-        <f t="shared" si="1"/>
-        <v>0.19595519999999997</v>
-      </c>
-      <c r="G15" s="7">
-        <f t="shared" si="2"/>
-        <v>-0.20606720000000009</v>
+        <f t="shared" si="2"/>
+        <v>8.0640000000000713E-4</v>
+      </c>
+      <c r="G15" s="33">
+        <f t="shared" si="3"/>
+        <v>-0.50013439999999998</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="8">
-        <f t="shared" si="3"/>
-        <v>9.6727929818316802</v>
+        <f t="shared" si="4"/>
+        <v>9.5000000361267194</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="9">
         <f t="shared" si="0"/>
-        <v>1.1757311999999995</v>
+        <v>-5.3759999999991592E-4</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="10">
-        <f t="shared" si="4"/>
-        <v>1.1757311999999995</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>-5.3759999999991592E-4</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="1"/>
+        <v>9.5005376361267189</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>9</v>
       </c>
       <c r="F16" s="7">
-        <f t="shared" si="1"/>
-        <v>0.11757311999999996</v>
-      </c>
-      <c r="G16" s="7">
-        <f t="shared" si="2"/>
-        <v>-0.32364032000000004</v>
+        <f t="shared" si="2"/>
+        <v>-1.6127999999997477E-4</v>
+      </c>
+      <c r="G16" s="33">
+        <f t="shared" si="3"/>
+        <v>-0.49997311999999999</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="8">
-        <f t="shared" si="3"/>
-        <v>9.5622054734594055</v>
+        <f t="shared" si="4"/>
+        <v>9.5000000014450681</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="9">
         <f t="shared" si="0"/>
-        <v>0.70543871999999985</v>
+        <v>1.0752000000002759E-4</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="10">
-        <f t="shared" si="4"/>
-        <v>0.70543871999999985</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1.0752000000002759E-4</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="1"/>
+        <v>9.4998924814450678</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>10</v>
       </c>
       <c r="F17" s="7">
-        <f t="shared" si="1"/>
-        <v>7.0543871999999994E-2</v>
-      </c>
-      <c r="G17" s="7">
-        <f t="shared" si="2"/>
-        <v>-0.39418419200000004</v>
+        <f t="shared" si="2"/>
+        <v>3.2256000000008278E-5</v>
+      </c>
+      <c r="G17" s="33">
+        <f t="shared" si="3"/>
+        <v>-0.50000537600000006</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="8">
-        <f t="shared" si="3"/>
-        <v>9.5223939704453855</v>
+        <f t="shared" si="4"/>
+        <v>9.5000000000578027</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="9">
         <f t="shared" si="0"/>
-        <v>0.42326323199999982</v>
+        <v>-2.1504000000227563E-5</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="10">
-        <f t="shared" si="4"/>
-        <v>0.42326323199999982</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>-2.1504000000227563E-5</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="1"/>
+        <v>9.500021504057802</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>11</v>
       </c>
       <c r="F18" s="7">
-        <f t="shared" si="1"/>
-        <v>4.2326323199999988E-2</v>
-      </c>
-      <c r="G18" s="7">
-        <f t="shared" si="2"/>
-        <v>-0.43651051520000006</v>
+        <f t="shared" si="2"/>
+        <v>-6.4512000000682685E-6</v>
+      </c>
+      <c r="G18" s="33">
+        <f t="shared" si="3"/>
+        <v>-0.49999892479999997</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="8">
-        <f t="shared" si="3"/>
-        <v>9.5080618293603383</v>
+        <f t="shared" si="4"/>
+        <v>9.5000000000023128</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="9">
         <f t="shared" si="0"/>
-        <v>0.25395793919999976</v>
+        <v>4.3008000001343305E-6</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="10">
-        <f t="shared" si="4"/>
-        <v>0.25395793919999976</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>4.3008000001343305E-6</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="1"/>
+        <v>9.4999956992023122</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>12</v>
       </c>
       <c r="F19" s="7">
-        <f t="shared" si="1"/>
-        <v>2.5395793919999979E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.2902400000402991E-6</v>
       </c>
       <c r="G19" s="14">
-        <f t="shared" si="2"/>
-        <v>-0.46190630912000002</v>
+        <f t="shared" si="3"/>
+        <v>-0.50000021504000003</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="8">
-        <f t="shared" si="3"/>
-        <v>9.5029022585697227</v>
+        <f t="shared" si="4"/>
+        <v>9.5000000000000924</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="9">
         <f t="shared" si="0"/>
-        <v>0.1523747635199999</v>
+        <v>-8.6016000011568394E-7</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="10">
-        <f t="shared" si="4"/>
-        <v>0.1523747635199999</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>-8.6016000011568394E-7</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="1"/>
+        <v>9.5000008601600925</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>13</v>
       </c>
       <c r="F20" s="7">
-        <f t="shared" si="1"/>
-        <v>1.5237476351999991E-2</v>
+        <f t="shared" si="2"/>
+        <v>-2.5804800003470517E-7</v>
       </c>
       <c r="G20" s="14">
-        <f t="shared" si="2"/>
-        <v>-0.47714378547200004</v>
+        <f t="shared" si="3"/>
+        <v>-0.49999995699200001</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="8">
-        <f t="shared" si="3"/>
-        <v>9.5010448130851</v>
+        <f t="shared" si="4"/>
+        <v>9.5000000000000036</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="9">
         <f t="shared" si="0"/>
-        <v>9.1424858111999852E-2</v>
+        <v>1.7203199997872787E-7</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="10">
-        <f t="shared" si="4"/>
-        <v>9.1424858111999852E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1.7203199997872787E-7</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="1"/>
+        <v>9.4999998279680042</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>14</v>
       </c>
       <c r="F21" s="7">
-        <f t="shared" si="1"/>
-        <v>9.1424858111999862E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.1609599993618356E-8</v>
       </c>
       <c r="G21" s="14">
-        <f t="shared" si="2"/>
-        <v>-0.48628627128320001</v>
+        <f t="shared" si="3"/>
+        <v>-0.50000000860159999</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="8">
-        <f t="shared" si="3"/>
-        <v>9.5003761327106364</v>
+        <f t="shared" si="4"/>
+        <v>9.5</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="9">
         <f t="shared" si="0"/>
-        <v>5.4854914867199955E-2</v>
+        <v>-3.4406399951336653E-8</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="10">
-        <f t="shared" si="4"/>
-        <v>5.4854914867199955E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>-3.4406399951336653E-8</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="1"/>
+        <v>9.5000000344063995</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>15</v>
       </c>
       <c r="F22" s="7">
-        <f t="shared" si="1"/>
-        <v>5.4854914867199962E-3</v>
+        <f t="shared" si="2"/>
+        <v>-1.0321919985400996E-8</v>
       </c>
       <c r="G22" s="14">
-        <f t="shared" si="2"/>
-        <v>-0.49177176276992002</v>
+        <f t="shared" si="3"/>
+        <v>-0.49999999827968</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="8">
-        <f t="shared" si="3"/>
-        <v>9.5001354077758293</v>
+        <f t="shared" si="4"/>
+        <v>9.5</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="9">
         <f t="shared" si="0"/>
-        <v>3.2912948920319929E-2</v>
+        <v>6.8812799902673305E-9</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="14">
-        <f t="shared" si="4"/>
-        <v>3.2912948920319929E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>6.8812799902673305E-9</v>
+      </c>
+      <c r="O22" s="1">
+        <f>I22-K22</f>
+        <v>9.4999999931187205</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>16</v>
       </c>
       <c r="F23" s="7">
-        <f t="shared" si="1"/>
-        <v>3.2912948920319931E-3</v>
+        <f t="shared" si="2"/>
+        <v>2.0643839970801992E-9</v>
       </c>
       <c r="G23" s="14">
-        <f t="shared" si="2"/>
-        <v>-0.49506305766195202</v>
+        <f t="shared" si="3"/>
+        <v>-0.500000000344064</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="8">
-        <f t="shared" si="3"/>
-        <v>9.5000487467992976</v>
+        <f t="shared" si="4"/>
+        <v>9.5</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="9">
         <f t="shared" si="0"/>
-        <v>1.9747769352191913E-2</v>
+        <v>-1.3762559980534661E-9</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="14">
-        <f t="shared" si="4"/>
-        <v>1.9747769352191913E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>-1.3762559980534661E-9</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" ref="O23:O33" si="6">I23-K23</f>
+        <v>9.5000000013762556</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>17</v>
       </c>
       <c r="F24" s="7">
-        <f t="shared" si="1"/>
-        <v>1.9747769352191913E-3</v>
+        <f t="shared" si="2"/>
+        <v>-4.1287679941603984E-10</v>
       </c>
       <c r="G24" s="14">
-        <f t="shared" si="2"/>
-        <v>-0.49703783459717121</v>
+        <f t="shared" si="3"/>
+        <v>-0.49999999993118721</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="8">
-        <f t="shared" si="3"/>
-        <v>9.5000175488477474</v>
+        <f t="shared" si="4"/>
+        <v>9.5</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="9">
         <f t="shared" si="0"/>
-        <v>1.1848661611315148E-2</v>
+        <v>2.7525115520177224E-10</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="14">
-        <f t="shared" si="4"/>
-        <v>1.1848661611315148E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>2.7525115520177224E-10</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="6"/>
+        <v>9.4999999997247482</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>18</v>
       </c>
       <c r="F25" s="7">
-        <f t="shared" si="1"/>
-        <v>1.1848661611315149E-3</v>
+        <f t="shared" si="2"/>
+        <v>8.2575346560531668E-11</v>
       </c>
       <c r="G25" s="14">
-        <f t="shared" si="2"/>
-        <v>-0.49822270075830272</v>
+        <f t="shared" si="3"/>
+        <v>-0.50000000001376255</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="8">
-        <f t="shared" si="3"/>
-        <v>9.5000063175851892</v>
+        <f t="shared" si="4"/>
+        <v>9.5</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="9">
         <f t="shared" si="0"/>
-        <v>7.109196966789133E-3</v>
+        <v>-5.5050186631433462E-11</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="14">
-        <f t="shared" si="4"/>
-        <v>7.109196966789133E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>-5.5050186631433462E-11</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="6"/>
+        <v>9.5000000000550493</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>19</v>
       </c>
       <c r="F26" s="7">
-        <f t="shared" si="1"/>
-        <v>7.109196966789133E-4</v>
+        <f t="shared" si="2"/>
+        <v>-1.6515055989430038E-11</v>
       </c>
       <c r="G26" s="14">
-        <f t="shared" si="2"/>
-        <v>-0.49893362045498163</v>
+        <f t="shared" si="3"/>
+        <v>-0.49999999999724748</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="8">
-        <f t="shared" si="3"/>
-        <v>9.5000022743306687</v>
+        <f t="shared" si="4"/>
+        <v>9.5</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="9">
         <f t="shared" si="0"/>
-        <v>4.2655181800734798E-3</v>
+        <v>1.1010081735207677E-11</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="14">
-        <f t="shared" si="4"/>
-        <v>4.2655181800734798E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1.1010081735207677E-11</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="6"/>
+        <v>9.4999999999889901</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>20</v>
       </c>
       <c r="F27" s="7">
-        <f t="shared" si="1"/>
-        <v>4.26551818007348E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.3030245205623032E-12</v>
       </c>
       <c r="G27" s="14">
-        <f t="shared" si="2"/>
-        <v>-0.49936017227298896</v>
+        <f t="shared" si="3"/>
+        <v>-0.50000000000055045</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="8">
-        <f t="shared" si="3"/>
-        <v>9.500000818759041</v>
+        <f t="shared" si="4"/>
+        <v>9.5</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="9">
         <f t="shared" si="0"/>
-        <v>2.5593109080441767E-3</v>
+        <v>-2.2017943024366105E-12</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="14">
-        <f t="shared" si="4"/>
-        <v>2.5593109080441767E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>-2.2017943024366105E-12</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="6"/>
+        <v>9.5000000000022027</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>21</v>
       </c>
       <c r="F28" s="7">
-        <f t="shared" si="1"/>
-        <v>2.5593109080441768E-4</v>
+        <f t="shared" si="2"/>
+        <v>-6.6053829073098307E-13</v>
       </c>
       <c r="G28" s="14">
-        <f t="shared" si="2"/>
-        <v>-0.49961610336379336</v>
+        <f t="shared" si="3"/>
+        <v>-0.49999999999988992</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="8">
-        <f t="shared" si="3"/>
-        <v>9.5000002947532547</v>
+        <f t="shared" si="4"/>
+        <v>9.5</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="9">
         <f t="shared" si="0"/>
-        <v>1.5355865448265504E-3</v>
+        <v>4.4031445156633708E-13</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="14">
-        <f t="shared" si="4"/>
-        <v>1.5355865448265504E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>4.4031445156633708E-13</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="6"/>
+        <v>9.4999999999995595</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>22</v>
       </c>
       <c r="F29" s="7">
-        <f t="shared" si="1"/>
-        <v>1.5355865448265507E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.3209433546990112E-13</v>
       </c>
       <c r="G29" s="14">
-        <f t="shared" si="2"/>
-        <v>-0.499769662018276</v>
+        <f t="shared" si="3"/>
+        <v>-0.50000000000002198</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="8">
-        <f t="shared" si="3"/>
-        <v>9.5000001061111714</v>
+        <f t="shared" si="4"/>
+        <v>9.5</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="9">
         <f t="shared" si="0"/>
-        <v>9.2135192689601908E-4</v>
+        <v>-8.7929663550312398E-14</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="14">
-        <f t="shared" si="4"/>
-        <v>9.2135192689601908E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>-8.7929663550312398E-14</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="6"/>
+        <v>9.5000000000000888</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>23</v>
       </c>
       <c r="F30" s="7">
-        <f t="shared" si="1"/>
-        <v>9.2135192689601916E-5</v>
+        <f t="shared" si="2"/>
+        <v>-2.6378899065093719E-14</v>
       </c>
       <c r="G30" s="14">
-        <f t="shared" si="2"/>
-        <v>-0.49986179721096557</v>
+        <f t="shared" si="3"/>
+        <v>-0.49999999999999561</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="8">
-        <f t="shared" si="3"/>
-        <v>9.5000000382000209</v>
+        <f t="shared" si="4"/>
+        <v>9.5</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="9">
         <f t="shared" si="0"/>
-        <v>5.5281115613770027E-4</v>
+        <v>1.7541523789077473E-14</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="14">
-        <f t="shared" si="4"/>
-        <v>5.5281115613770027E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1.7541523789077473E-14</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="6"/>
+        <v>9.4999999999999822</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>24</v>
       </c>
       <c r="F31" s="7">
-        <f t="shared" si="1"/>
-        <v>5.5281115613770031E-5</v>
+        <f t="shared" si="2"/>
+        <v>5.2624571367232418E-15</v>
       </c>
       <c r="G31" s="14">
-        <f t="shared" si="2"/>
-        <v>-0.49991707832657933</v>
+        <f t="shared" si="3"/>
+        <v>-0.50000000000000089</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="8">
-        <f t="shared" si="3"/>
-        <v>9.5000000137520075</v>
+        <f t="shared" si="4"/>
+        <v>9.5</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="9">
         <f t="shared" si="0"/>
-        <v>3.3168669368266457E-4</v>
+        <v>-3.5527136788005009E-15</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="14">
-        <f t="shared" si="4"/>
-        <v>3.3168669368266457E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>-3.5527136788005009E-15</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="6"/>
+        <v>9.5000000000000036</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>25</v>
       </c>
       <c r="F32" s="7">
-        <f t="shared" si="1"/>
-        <v>3.3168669368266461E-5</v>
+        <f t="shared" si="2"/>
+        <v>-1.0658141036401502E-15</v>
       </c>
       <c r="G32" s="14">
-        <f t="shared" si="2"/>
-        <v>-0.49995024699594759</v>
+        <f t="shared" si="3"/>
+        <v>-0.49999999999999983</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="8">
-        <f t="shared" si="3"/>
-        <v>9.5000000049507225</v>
+        <f t="shared" si="4"/>
+        <v>9.5</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="9">
         <f t="shared" si="0"/>
-        <v>1.9901201620964315E-4</v>
+        <v>0</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="14">
-        <f t="shared" si="4"/>
-        <v>1.9901201620964315E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="6"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>26</v>
       </c>
       <c r="F33" s="7">
-        <f t="shared" si="1"/>
-        <v>1.9901201620964317E-5</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="G33" s="14">
-        <f t="shared" si="2"/>
-        <v>-0.49997014819756858</v>
+        <f t="shared" si="3"/>
+        <v>-0.49999999999999983</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="8">
-        <f t="shared" si="3"/>
-        <v>9.5000000017822597</v>
+        <f t="shared" si="4"/>
+        <v>9.5</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="9">
         <f t="shared" si="0"/>
-        <v>1.1940720972569707E-4</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="14">
-        <f t="shared" si="4"/>
-        <v>1.1940720972569707E-4</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="6"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>27</v>
       </c>
       <c r="F34" s="7">
-        <f t="shared" si="1"/>
-        <v>1.1940720972569709E-5</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="G34" s="14">
-        <f t="shared" si="2"/>
-        <v>-0.49998208891854112</v>
+        <f t="shared" si="3"/>
+        <v>-0.49999999999999983</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="8">
-        <f t="shared" si="3"/>
-        <v>9.500000000641613</v>
+        <f t="shared" si="4"/>
+        <v>9.5</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="9">
         <f t="shared" si="0"/>
-        <v>7.1644325835507061E-5</v>
+        <v>0</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="14">
-        <f t="shared" si="4"/>
-        <v>7.1644325835507061E-5</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>28</v>
       </c>
       <c r="F35" s="7">
-        <f t="shared" si="1"/>
-        <v>7.1644325835507066E-6</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="G35" s="14">
-        <f t="shared" si="2"/>
-        <v>-0.49998925335112465</v>
+        <f t="shared" si="3"/>
+        <v>-0.49999999999999983</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="8">
-        <f t="shared" si="3"/>
-        <v>9.5000000002309815</v>
+        <f t="shared" si="4"/>
+        <v>9.5</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="9">
         <f t="shared" si="0"/>
-        <v>4.2986595501393055E-5</v>
+        <v>0</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="14">
-        <f t="shared" si="4"/>
-        <v>4.2986595501393055E-5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>29</v>
       </c>
       <c r="F36" s="7">
-        <f t="shared" si="1"/>
-        <v>4.2986595501393056E-6</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="G36" s="14">
-        <f t="shared" si="2"/>
-        <v>-0.4999935520106748</v>
+        <f t="shared" si="3"/>
+        <v>-0.49999999999999983</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="8">
-        <f t="shared" si="3"/>
-        <v>9.500000000083153</v>
+        <f t="shared" si="4"/>
+        <v>9.5</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="9">
         <f t="shared" si="0"/>
-        <v>2.5791957300791424E-5</v>
+        <v>0</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="14">
-        <f t="shared" si="4"/>
-        <v>2.5791957300791424E-5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>30</v>
       </c>
       <c r="F37" s="7">
-        <f t="shared" si="1"/>
-        <v>2.5791957300791427E-6</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="G37" s="14">
-        <f t="shared" si="2"/>
-        <v>-0.4999961312064049</v>
+        <f t="shared" si="3"/>
+        <v>-0.49999999999999983</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="8">
-        <f t="shared" si="3"/>
-        <v>9.5000000000299352</v>
+        <f t="shared" si="4"/>
+        <v>9.5</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="9">
         <f t="shared" si="0"/>
-        <v>1.5475174380386036E-5</v>
+        <v>0</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="14">
-        <f t="shared" si="4"/>
-        <v>1.5475174380386036E-5</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>31</v>
       </c>
       <c r="F38" s="7">
-        <f t="shared" si="1"/>
-        <v>1.5475174380386037E-6</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="G38" s="14">
-        <f t="shared" si="2"/>
-        <v>-0.49999767872384293</v>
+        <f t="shared" si="3"/>
+        <v>-0.49999999999999983</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="8">
-        <f t="shared" si="3"/>
-        <v>9.5000000000107772</v>
+        <f t="shared" si="4"/>
+        <v>9.5</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="9">
         <f t="shared" si="0"/>
-        <v>9.2851046282760308E-6</v>
+        <v>0</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="14">
-        <f t="shared" si="4"/>
-        <v>9.2851046282760308E-6</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>32</v>
       </c>
       <c r="F39" s="7">
-        <f t="shared" ref="F39:F52" si="5">B$2*M38</f>
-        <v>9.285104628276031E-7</v>
+        <f t="shared" ref="F39:F52" si="7">B$2*M38</f>
+        <v>0</v>
       </c>
       <c r="G39" s="14">
-        <f t="shared" ref="G39:G52" si="6">G38-F39</f>
-        <v>-0.49999860723430578</v>
+        <f t="shared" ref="G39:G52" si="8">G38-F39</f>
+        <v>-0.49999999999999983</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="8">
-        <f t="shared" ref="I39:I52" si="7">G$2*G39*G39+I$2*G39+K$2</f>
-        <v>9.5000000000038796</v>
+        <f t="shared" ref="I39:I52" si="9">G$2*G39*G39+I$2*G39+K$2</f>
+        <v>9.5</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="9">
-        <f t="shared" ref="K39:K52" si="8">2*G$2*G39+I$2</f>
-        <v>5.5710627768768006E-6</v>
+        <f t="shared" ref="K39:K52" si="10">2*G$2*G39+I$2</f>
+        <v>0</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="14">
-        <f t="shared" ref="M39:M52" si="9">K39</f>
-        <v>5.5710627768768006E-6</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="M39:M52" si="11">K39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>33</v>
       </c>
       <c r="F40" s="7">
-        <f t="shared" si="5"/>
-        <v>5.5710627768768004E-7</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="G40" s="14">
-        <f t="shared" si="6"/>
-        <v>-0.49999916434058345</v>
+        <f t="shared" si="8"/>
+        <v>-0.49999999999999983</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="8">
-        <f t="shared" si="7"/>
-        <v>9.5000000000013962</v>
+        <f t="shared" si="9"/>
+        <v>9.5</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="9">
-        <f t="shared" si="8"/>
-        <v>3.3426376662148982E-6</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="14">
-        <f t="shared" si="9"/>
-        <v>3.3426376662148982E-6</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>34</v>
       </c>
       <c r="F41" s="7">
-        <f t="shared" si="5"/>
-        <v>3.3426376662148986E-7</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="G41" s="14">
-        <f t="shared" si="6"/>
-        <v>-0.49999949860435006</v>
+        <f t="shared" si="8"/>
+        <v>-0.49999999999999983</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="8">
-        <f t="shared" si="7"/>
-        <v>9.5000000000005027</v>
+        <f t="shared" si="9"/>
+        <v>9.5</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="9">
-        <f t="shared" si="8"/>
-        <v>2.0055825997733479E-6</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="14">
-        <f t="shared" si="9"/>
-        <v>2.0055825997733479E-6</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>35</v>
       </c>
       <c r="F42" s="7">
-        <f t="shared" si="5"/>
-        <v>2.0055825997733481E-7</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="G42" s="14">
-        <f t="shared" si="6"/>
-        <v>-0.49999969916261006</v>
+        <f t="shared" si="8"/>
+        <v>-0.49999999999999983</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="8">
-        <f t="shared" si="7"/>
-        <v>9.5000000000001812</v>
+        <f t="shared" si="9"/>
+        <v>9.5</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="9">
-        <f t="shared" si="8"/>
-        <v>1.2033495597751909E-6</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="14">
-        <f t="shared" si="9"/>
-        <v>1.2033495597751909E-6</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>36</v>
       </c>
       <c r="F43" s="7">
-        <f t="shared" si="5"/>
-        <v>1.2033495597751908E-7</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="G43" s="14">
-        <f t="shared" si="6"/>
-        <v>-0.49999981949756606</v>
+        <f t="shared" si="8"/>
+        <v>-0.49999999999999983</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="8">
-        <f t="shared" si="7"/>
-        <v>9.5000000000000657</v>
+        <f t="shared" si="9"/>
+        <v>9.5</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="9">
-        <f t="shared" si="8"/>
-        <v>7.2200973577629668E-7</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="14">
-        <f t="shared" si="9"/>
-        <v>7.2200973577629668E-7</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>37</v>
       </c>
       <c r="F44" s="7">
-        <f t="shared" si="5"/>
-        <v>7.2200973577629679E-8</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="G44" s="14">
-        <f t="shared" si="6"/>
-        <v>-0.49999989169853964</v>
+        <f t="shared" si="8"/>
+        <v>-0.49999999999999983</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="8">
-        <f t="shared" si="7"/>
-        <v>9.5000000000000231</v>
+        <f t="shared" si="9"/>
+        <v>9.5</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="9">
-        <f t="shared" si="8"/>
-        <v>4.3320584142136909E-7</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="14">
-        <f t="shared" si="9"/>
-        <v>4.3320584142136909E-7</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>38</v>
       </c>
       <c r="F45" s="7">
-        <f t="shared" si="5"/>
-        <v>4.3320584142136914E-8</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="G45" s="14">
-        <f t="shared" si="6"/>
-        <v>-0.49999993501912376</v>
+        <f t="shared" si="8"/>
+        <v>-0.49999999999999983</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="8">
-        <f t="shared" si="7"/>
-        <v>9.5000000000000089</v>
+        <f t="shared" si="9"/>
+        <v>9.5</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="9">
-        <f t="shared" si="8"/>
-        <v>2.5992350494163929E-7</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="14">
-        <f t="shared" si="9"/>
-        <v>2.5992350494163929E-7</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>39</v>
       </c>
       <c r="F46" s="7">
-        <f t="shared" si="5"/>
-        <v>2.5992350494163929E-8</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="G46" s="14">
-        <f t="shared" si="6"/>
-        <v>-0.49999996101147426</v>
+        <f t="shared" si="8"/>
+        <v>-0.49999999999999983</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="8">
-        <f t="shared" si="7"/>
-        <v>9.5000000000000036</v>
+        <f t="shared" si="9"/>
+        <v>9.5</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="9">
-        <f t="shared" si="8"/>
-        <v>1.5595410296498358E-7</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="14">
-        <f t="shared" si="9"/>
-        <v>1.5595410296498358E-7</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>40</v>
       </c>
       <c r="F47" s="7">
-        <f t="shared" si="5"/>
-        <v>1.5595410296498358E-8</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="G47" s="14">
-        <f t="shared" si="6"/>
-        <v>-0.49999997660688456</v>
+        <f t="shared" si="8"/>
+        <v>-0.49999999999999983</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="8">
-        <f t="shared" si="7"/>
-        <v>9.5000000000000018</v>
+        <f t="shared" si="9"/>
+        <v>9.5</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="9">
-        <f t="shared" si="8"/>
-        <v>9.3572461778990146E-8</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="14">
-        <f t="shared" si="9"/>
-        <v>9.3572461778990146E-8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>41</v>
       </c>
       <c r="F48" s="7">
-        <f t="shared" si="5"/>
-        <v>9.3572461778990159E-9</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="G48" s="14">
-        <f t="shared" si="6"/>
-        <v>-0.49999998596413076</v>
+        <f t="shared" si="8"/>
+        <v>-0.49999999999999983</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.5</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="9">
-        <f t="shared" si="8"/>
-        <v>5.6143476978576246E-8</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="14">
-        <f t="shared" si="9"/>
-        <v>5.6143476978576246E-8</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
@@ -3287,27 +4179,27 @@
         <v>42</v>
       </c>
       <c r="F49" s="7">
-        <f t="shared" si="5"/>
-        <v>5.6143476978576252E-9</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="G49" s="14">
-        <f t="shared" si="6"/>
-        <v>-0.49999999157847846</v>
+        <f t="shared" si="8"/>
+        <v>-0.49999999999999983</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.5</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="9">
-        <f t="shared" si="8"/>
-        <v>3.3686086142736826E-8</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="14">
-        <f t="shared" si="9"/>
-        <v>3.3686086142736826E-8</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
@@ -3315,27 +4207,27 @@
         <v>43</v>
       </c>
       <c r="F50" s="7">
-        <f t="shared" si="5"/>
-        <v>3.3686086142736826E-9</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="G50" s="14">
-        <f t="shared" si="6"/>
-        <v>-0.49999999494708708</v>
+        <f t="shared" si="8"/>
+        <v>-0.49999999999999983</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.5</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="9">
-        <f t="shared" si="8"/>
-        <v>2.0211651685642096E-8</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="14">
-        <f t="shared" si="9"/>
-        <v>2.0211651685642096E-8</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
@@ -3343,27 +4235,27 @@
         <v>44</v>
       </c>
       <c r="F51" s="7">
-        <f t="shared" si="5"/>
-        <v>2.0211651685642098E-9</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="G51" s="14">
-        <f t="shared" si="6"/>
-        <v>-0.49999999696825226</v>
+        <f t="shared" si="8"/>
+        <v>-0.49999999999999983</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.5</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="9">
-        <f t="shared" si="8"/>
-        <v>1.2126990966976336E-8</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="14">
-        <f t="shared" si="9"/>
-        <v>1.2126990966976336E-8</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
@@ -3371,42 +4263,1495 @@
         <v>45</v>
       </c>
       <c r="F52" s="7">
-        <f t="shared" si="5"/>
-        <v>1.2126990966976337E-9</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="G52" s="14">
-        <f t="shared" si="6"/>
-        <v>-0.49999999818095137</v>
+        <f t="shared" si="8"/>
+        <v>-0.49999999999999983</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.5</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="9">
-        <f t="shared" si="8"/>
-        <v>7.2761945357768809E-9</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="14">
-        <f t="shared" si="9"/>
-        <v>7.2761945357768809E-9</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:O53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="R37" sqref="R37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="11" max="11" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="4">
+        <v>2</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="4">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D4" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="32"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <v>10</v>
+      </c>
+      <c r="I9" s="5">
+        <f>G$2*G9*G9+I$2*G9+K$2</f>
+        <v>230</v>
+      </c>
+      <c r="K9" s="9">
+        <f>2*G$2*G9+I$2</f>
+        <v>42</v>
+      </c>
+      <c r="M9" s="10">
+        <f>K9</f>
+        <v>42</v>
+      </c>
+      <c r="O9" s="1">
+        <f>I9-K9</f>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7">
+        <f>B$2*M9</f>
+        <v>18.900000000000002</v>
+      </c>
+      <c r="G10" s="33">
+        <f>G9-F10</f>
+        <v>-8.9000000000000021</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="8">
+        <f>G$2*G10*G10+I$2*G10+K$2</f>
+        <v>150.62000000000006</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="9">
+        <f t="shared" ref="K10:K53" si="0">2*G$2*G10+I$2</f>
+        <v>-33.600000000000009</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="10">
+        <f>K10</f>
+        <v>-33.600000000000009</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" ref="O10:O22" si="1">I10-K10</f>
+        <v>184.22000000000008</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" ref="F11:F53" si="2">B$2*M10</f>
+        <v>-15.120000000000005</v>
+      </c>
+      <c r="G11" s="33">
+        <f t="shared" ref="G11:G53" si="3">G10-F11</f>
+        <v>6.2200000000000024</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="8">
+        <f t="shared" ref="I11:I53" si="4">G$2*G11*G11+I$2*G11+K$2</f>
+        <v>99.816800000000057</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="9">
+        <f t="shared" si="0"/>
+        <v>26.88000000000001</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="10">
+        <f t="shared" ref="M11:M53" si="5">K11</f>
+        <v>26.88000000000001</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="1"/>
+        <v>72.936800000000048</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="2"/>
+        <v>12.096000000000005</v>
+      </c>
+      <c r="G12" s="33">
+        <f t="shared" si="3"/>
+        <v>-5.876000000000003</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="8">
+        <f t="shared" si="4"/>
+        <v>67.302752000000055</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="9">
+        <f t="shared" si="0"/>
+        <v>-21.504000000000012</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="10">
+        <f t="shared" si="5"/>
+        <v>-21.504000000000012</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="1"/>
+        <v>88.806752000000074</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="2"/>
+        <v>-9.6768000000000054</v>
+      </c>
+      <c r="G13" s="33">
+        <f t="shared" si="3"/>
+        <v>3.8008000000000024</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="8">
+        <f t="shared" si="4"/>
+        <v>46.493761280000044</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="9">
+        <f t="shared" si="0"/>
+        <v>17.20320000000001</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="10">
+        <f t="shared" si="5"/>
+        <v>17.20320000000001</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="1"/>
+        <v>29.290561280000034</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="2"/>
+        <v>7.7414400000000043</v>
+      </c>
+      <c r="G14" s="33">
+        <f t="shared" si="3"/>
+        <v>-3.9406400000000019</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="8">
+        <f t="shared" si="4"/>
+        <v>33.176007219200031</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="9">
+        <f t="shared" si="0"/>
+        <v>-13.762560000000008</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="10">
+        <f t="shared" si="5"/>
+        <v>-13.762560000000008</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="1"/>
+        <v>46.938567219200038</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" si="2"/>
+        <v>-6.193152000000004</v>
+      </c>
+      <c r="G15" s="33">
+        <f t="shared" si="3"/>
+        <v>2.2525120000000021</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="8">
+        <f t="shared" si="4"/>
+        <v>24.652644620288022</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="9">
+        <f t="shared" si="0"/>
+        <v>11.010048000000008</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="10">
+        <f t="shared" si="5"/>
+        <v>11.010048000000008</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="1"/>
+        <v>13.642596620288014</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="2"/>
+        <v>4.9545216000000041</v>
+      </c>
+      <c r="G16" s="33">
+        <f t="shared" si="3"/>
+        <v>-2.702009600000002</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="8">
+        <f t="shared" si="4"/>
+        <v>19.197692556984336</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="9">
+        <f t="shared" si="0"/>
+        <v>-8.808038400000008</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="10">
+        <f t="shared" si="5"/>
+        <v>-8.808038400000008</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="1"/>
+        <v>28.005730956984344</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="2"/>
+        <v>-3.9636172800000038</v>
+      </c>
+      <c r="G17" s="33">
+        <f t="shared" si="3"/>
+        <v>1.2616076800000018</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="8">
+        <f t="shared" si="4"/>
+        <v>15.706523236469977</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="9">
+        <f t="shared" si="0"/>
+        <v>7.0464307200000071</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="10">
+        <f t="shared" si="5"/>
+        <v>7.0464307200000071</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="1"/>
+        <v>8.6600925164699696</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="2"/>
+        <v>3.1708938240000033</v>
+      </c>
+      <c r="G18" s="33">
+        <f t="shared" si="3"/>
+        <v>-1.9092861440000015</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="8">
+        <f t="shared" si="4"/>
+        <v>13.472174871340787</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="9">
+        <f t="shared" si="0"/>
+        <v>-5.6371445760000061</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="10">
+        <f t="shared" si="5"/>
+        <v>-5.6371445760000061</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="1"/>
+        <v>19.109319447340795</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="2"/>
+        <v>-2.5367150592000027</v>
+      </c>
+      <c r="G19" s="33">
+        <f t="shared" si="3"/>
+        <v>0.62742891520000121</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="8">
+        <f t="shared" si="4"/>
+        <v>12.042191917658103</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="9">
+        <f t="shared" si="0"/>
+        <v>4.5097156608000049</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="10">
+        <f t="shared" si="5"/>
+        <v>4.5097156608000049</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="1"/>
+        <v>7.5324762568580983</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="2"/>
+        <v>2.0293720473600021</v>
+      </c>
+      <c r="G20" s="33">
+        <f t="shared" si="3"/>
+        <v>-1.4019431321600009</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="8">
+        <f t="shared" si="4"/>
+        <v>11.127002827301187</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="9">
+        <f t="shared" si="0"/>
+        <v>-3.6077725286400035</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="10">
+        <f t="shared" si="5"/>
+        <v>-3.6077725286400035</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="1"/>
+        <v>14.73477535594119</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>13</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="2"/>
+        <v>-1.6234976378880017</v>
+      </c>
+      <c r="G21" s="33">
+        <f t="shared" si="3"/>
+        <v>0.22155450572800084</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="8">
+        <f t="shared" si="4"/>
+        <v>10.541281809472759</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="9">
+        <f t="shared" si="0"/>
+        <v>2.8862180229120034</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="10">
+        <f t="shared" si="5"/>
+        <v>2.8862180229120034</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="1"/>
+        <v>7.6550637865607554</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>14</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="2"/>
+        <v>1.2987981103104016</v>
+      </c>
+      <c r="G22" s="33">
+        <f t="shared" si="3"/>
+        <v>-1.0772436045824008</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="8">
+        <f t="shared" si="4"/>
+        <v>10.166420358062567</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="9">
+        <f t="shared" si="0"/>
+        <v>-2.308974418329603</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="10">
+        <f t="shared" si="5"/>
+        <v>-2.308974418329603</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="1"/>
+        <v>12.47539477639217</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>15</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" si="2"/>
+        <v>-1.0390384882483215</v>
+      </c>
+      <c r="G23" s="33">
+        <f t="shared" si="3"/>
+        <v>-3.8205116334079303E-2</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="8">
+        <f t="shared" si="4"/>
+        <v>9.9265090291600426</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="9">
+        <f t="shared" si="0"/>
+        <v>1.8471795346636828</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="10">
+        <f t="shared" si="5"/>
+        <v>1.8471795346636828</v>
+      </c>
+      <c r="O23" s="1">
+        <f>I23-K23</f>
+        <v>8.0793294944963598</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>16</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="2"/>
+        <v>0.83123079059865723</v>
+      </c>
+      <c r="G24" s="33">
+        <f t="shared" si="3"/>
+        <v>-0.86943590693273654</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="8">
+        <f t="shared" si="4"/>
+        <v>9.772965778662428</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.4777436277309461</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="10">
+        <f t="shared" si="5"/>
+        <v>-1.4777436277309461</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" ref="O24:O34" si="6">I24-K24</f>
+        <v>11.250709406393375</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>17</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" si="2"/>
+        <v>-0.66498463247892581</v>
+      </c>
+      <c r="G25" s="33">
+        <f t="shared" si="3"/>
+        <v>-0.20445127445381073</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="8">
+        <f t="shared" si="4"/>
+        <v>9.6746980983439528</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1821949021847571</v>
+      </c>
+      <c r="L25" s="1"/>
+      <c r="M25" s="10">
+        <f t="shared" si="5"/>
+        <v>1.1821949021847571</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="6"/>
+        <v>8.4925031961591948</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>18</v>
+      </c>
+      <c r="F26" s="7">
+        <f t="shared" si="2"/>
+        <v>0.53198770598314071</v>
+      </c>
+      <c r="G26" s="33">
+        <f t="shared" si="3"/>
+        <v>-0.73643898043695144</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="8">
+        <f t="shared" si="4"/>
+        <v>9.6118067829401301</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.94575592174780576</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.94575592174780576</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="6"/>
+        <v>10.557562704687935</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7">
+        <f t="shared" si="2"/>
+        <v>-0.42559016478651263</v>
+      </c>
+      <c r="G27" s="33">
+        <f t="shared" si="3"/>
+        <v>-0.31084881565043881</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="8">
+        <f t="shared" si="4"/>
+        <v>9.5715563410816831</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="9">
+        <f t="shared" si="0"/>
+        <v>0.75660473739824474</v>
+      </c>
+      <c r="L27" s="1"/>
+      <c r="M27" s="10">
+        <f t="shared" si="5"/>
+        <v>0.75660473739824474</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="6"/>
+        <v>8.8149516036834381</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="2"/>
+        <v>0.34047213182921016</v>
+      </c>
+      <c r="G28" s="33">
+        <f t="shared" si="3"/>
+        <v>-0.65132094747964897</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="8">
+        <f t="shared" si="4"/>
+        <v>9.545796058292277</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.60528378991859588</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="M28" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.60528378991859588</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="6"/>
+        <v>10.151079848210873</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>21</v>
+      </c>
+      <c r="F29" s="7">
+        <f t="shared" si="2"/>
+        <v>-0.27237770546336815</v>
+      </c>
+      <c r="G29" s="33">
+        <f t="shared" si="3"/>
+        <v>-0.37894324201628082</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="8">
+        <f t="shared" si="4"/>
+        <v>9.5293094773070575</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="9">
+        <f t="shared" si="0"/>
+        <v>0.48422703193487671</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="M29" s="10">
+        <f t="shared" si="5"/>
+        <v>0.48422703193487671</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="6"/>
+        <v>9.0450824453721808</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>22</v>
+      </c>
+      <c r="F30" s="7">
+        <f t="shared" si="2"/>
+        <v>0.21790216437069451</v>
+      </c>
+      <c r="G30" s="33">
+        <f t="shared" si="3"/>
+        <v>-0.59684540638697536</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="8">
+        <f t="shared" si="4"/>
+        <v>9.5187580654765167</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.38738162554790145</v>
+      </c>
+      <c r="L30" s="1"/>
+      <c r="M30" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.38738162554790145</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="6"/>
+        <v>9.9061396910244177</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>23</v>
+      </c>
+      <c r="F31" s="7">
+        <f t="shared" si="2"/>
+        <v>-0.17432173149655567</v>
+      </c>
+      <c r="G31" s="33">
+        <f t="shared" si="3"/>
+        <v>-0.4225236748904197</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="8">
+        <f t="shared" si="4"/>
+        <v>9.5120051619049715</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="9">
+        <f t="shared" si="0"/>
+        <v>0.30990530043832121</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="10">
+        <f t="shared" si="5"/>
+        <v>0.30990530043832121</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="6"/>
+        <v>9.2020998614666496</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>24</v>
+      </c>
+      <c r="F32" s="7">
+        <f t="shared" si="2"/>
+        <v>0.13945738519724454</v>
+      </c>
+      <c r="G32" s="33">
+        <f t="shared" si="3"/>
+        <v>-0.56198106008766424</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="8">
+        <f t="shared" si="4"/>
+        <v>9.5076833036191815</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.24792424035065697</v>
+      </c>
+      <c r="L32" s="1"/>
+      <c r="M32" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.24792424035065697</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="6"/>
+        <v>9.7556075439698375</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>25</v>
+      </c>
+      <c r="F33" s="7">
+        <f t="shared" si="2"/>
+        <v>-0.11156590815779564</v>
+      </c>
+      <c r="G33" s="33">
+        <f t="shared" si="3"/>
+        <v>-0.45041515192986858</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="8">
+        <f t="shared" si="4"/>
+        <v>9.5049173143162768</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="9">
+        <f t="shared" si="0"/>
+        <v>0.19833939228052566</v>
+      </c>
+      <c r="L33" s="1"/>
+      <c r="M33" s="10">
+        <f t="shared" si="5"/>
+        <v>0.19833939228052566</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="6"/>
+        <v>9.3065779220357516</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>26</v>
+      </c>
+      <c r="F34" s="7">
+        <f t="shared" si="2"/>
+        <v>8.9252726526236545E-2</v>
+      </c>
+      <c r="G34" s="33">
+        <f t="shared" si="3"/>
+        <v>-0.53966787845610509</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="8">
+        <f t="shared" si="4"/>
+        <v>9.5031470811624175</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.15867151382442035</v>
+      </c>
+      <c r="L34" s="1"/>
+      <c r="M34" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.15867151382442035</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" si="6"/>
+        <v>9.6618185949868369</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>27</v>
+      </c>
+      <c r="F35" s="7">
+        <f t="shared" si="2"/>
+        <v>-7.1402181220989167E-2</v>
+      </c>
+      <c r="G35" s="33">
+        <f t="shared" si="3"/>
+        <v>-0.46826569723511591</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="8">
+        <f t="shared" si="4"/>
+        <v>9.5020141319439464</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="K35" s="9">
+        <f t="shared" si="0"/>
+        <v>0.12693721105953637</v>
+      </c>
+      <c r="L35" s="1"/>
+      <c r="M35" s="10">
+        <f t="shared" si="5"/>
+        <v>0.12693721105953637</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>28</v>
+      </c>
+      <c r="F36" s="7">
+        <f t="shared" si="2"/>
+        <v>5.7121744976791365E-2</v>
+      </c>
+      <c r="G36" s="33">
+        <f t="shared" si="3"/>
+        <v>-0.52538744221190725</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="8">
+        <f t="shared" si="4"/>
+        <v>9.5012890444441265</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.10154976884762901</v>
+      </c>
+      <c r="L36" s="1"/>
+      <c r="M36" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.10154976884762901</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>29</v>
+      </c>
+      <c r="F37" s="7">
+        <f t="shared" si="2"/>
+        <v>-4.5697395981433055E-2</v>
+      </c>
+      <c r="G37" s="33">
+        <f t="shared" si="3"/>
+        <v>-0.47969004623047418</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="8">
+        <f t="shared" si="4"/>
+        <v>9.5008249884442399</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="9">
+        <f t="shared" si="0"/>
+        <v>8.1239815078103295E-2</v>
+      </c>
+      <c r="L37" s="1"/>
+      <c r="M37" s="10">
+        <f t="shared" si="5"/>
+        <v>8.1239815078103295E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>30</v>
+      </c>
+      <c r="F38" s="7">
+        <f t="shared" si="2"/>
+        <v>3.6557916785146485E-2</v>
+      </c>
+      <c r="G38" s="33">
+        <f t="shared" si="3"/>
+        <v>-0.5162479630156207</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="8">
+        <f t="shared" si="4"/>
+        <v>9.5005279926043134</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="9">
+        <f t="shared" si="0"/>
+        <v>-6.4991852062482813E-2</v>
+      </c>
+      <c r="L38" s="1"/>
+      <c r="M38" s="10">
+        <f t="shared" si="5"/>
+        <v>-6.4991852062482813E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>31</v>
+      </c>
+      <c r="F39" s="7">
+        <f t="shared" si="2"/>
+        <v>-2.9246333428117267E-2</v>
+      </c>
+      <c r="G39" s="33">
+        <f t="shared" si="3"/>
+        <v>-0.48700162958750343</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="8">
+        <f t="shared" si="4"/>
+        <v>9.5003379152667602</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="9">
+        <f t="shared" si="0"/>
+        <v>5.1993481649986295E-2</v>
+      </c>
+      <c r="L39" s="1"/>
+      <c r="M39" s="10">
+        <f t="shared" si="5"/>
+        <v>5.1993481649986295E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>32</v>
+      </c>
+      <c r="F40" s="7">
+        <f t="shared" si="2"/>
+        <v>2.3397066742493835E-2</v>
+      </c>
+      <c r="G40" s="14">
+        <f t="shared" si="3"/>
+        <v>-0.51039869632999724</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="8">
+        <f t="shared" si="4"/>
+        <v>9.5002162657707263</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" s="9">
+        <f t="shared" si="0"/>
+        <v>-4.1594785319988947E-2</v>
+      </c>
+      <c r="L40" s="1"/>
+      <c r="M40" s="14">
+        <f t="shared" si="5"/>
+        <v>-4.1594785319988947E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>33</v>
+      </c>
+      <c r="F41" s="7">
+        <f t="shared" si="2"/>
+        <v>-1.8717653393995028E-2</v>
+      </c>
+      <c r="G41" s="14">
+        <f t="shared" si="3"/>
+        <v>-0.49168104293600223</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="8">
+        <f t="shared" si="4"/>
+        <v>9.5001384100932658</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="9">
+        <f t="shared" si="0"/>
+        <v>3.3275828255991069E-2</v>
+      </c>
+      <c r="L41" s="1"/>
+      <c r="M41" s="14">
+        <f t="shared" si="5"/>
+        <v>3.3275828255991069E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>34</v>
+      </c>
+      <c r="F42" s="7">
+        <f t="shared" si="2"/>
+        <v>1.4974122715195982E-2</v>
+      </c>
+      <c r="G42" s="14">
+        <f t="shared" si="3"/>
+        <v>-0.50665516565119817</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="8">
+        <f t="shared" si="4"/>
+        <v>9.5000885824596892</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="9">
+        <f t="shared" si="0"/>
+        <v>-2.6620662604792678E-2</v>
+      </c>
+      <c r="L42" s="1"/>
+      <c r="M42" s="14">
+        <f t="shared" si="5"/>
+        <v>-2.6620662604792678E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>35</v>
+      </c>
+      <c r="F43" s="7">
+        <f t="shared" si="2"/>
+        <v>-1.1979298172156705E-2</v>
+      </c>
+      <c r="G43" s="14">
+        <f t="shared" si="3"/>
+        <v>-0.49467586747904146</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="8">
+        <f t="shared" si="4"/>
+        <v>9.5000566927742014</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="9">
+        <f t="shared" si="0"/>
+        <v>2.1296530083834142E-2</v>
+      </c>
+      <c r="L43" s="1"/>
+      <c r="M43" s="14">
+        <f t="shared" si="5"/>
+        <v>2.1296530083834142E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>36</v>
+      </c>
+      <c r="F44" s="7">
+        <f t="shared" si="2"/>
+        <v>9.5834385377253639E-3</v>
+      </c>
+      <c r="G44" s="14">
+        <f t="shared" si="3"/>
+        <v>-0.50425930601676683</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="8">
+        <f t="shared" si="4"/>
+        <v>9.5000362833754881</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.7037224067067314E-2</v>
+      </c>
+      <c r="L44" s="1"/>
+      <c r="M44" s="14">
+        <f t="shared" si="5"/>
+        <v>-1.7037224067067314E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>37</v>
+      </c>
+      <c r="F45" s="7">
+        <f t="shared" si="2"/>
+        <v>-7.6667508301802917E-3</v>
+      </c>
+      <c r="G45" s="14">
+        <f t="shared" si="3"/>
+        <v>-0.49659255518658652</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="8">
+        <f t="shared" si="4"/>
+        <v>9.5000232213603137</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="9">
+        <f t="shared" si="0"/>
+        <v>1.362977925365394E-2</v>
+      </c>
+      <c r="L45" s="1"/>
+      <c r="M45" s="14">
+        <f t="shared" si="5"/>
+        <v>1.362977925365394E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>38</v>
+      </c>
+      <c r="F46" s="7">
+        <f t="shared" si="2"/>
+        <v>6.1334006641442732E-3</v>
+      </c>
+      <c r="G46" s="14">
+        <f t="shared" si="3"/>
+        <v>-0.50272595585073077</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="8">
+        <f t="shared" si="4"/>
+        <v>9.5000148616705999</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.0903823402923063E-2</v>
+      </c>
+      <c r="L46" s="1"/>
+      <c r="M46" s="14">
+        <f t="shared" si="5"/>
+        <v>-1.0903823402923063E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>39</v>
+      </c>
+      <c r="F47" s="7">
+        <f t="shared" si="2"/>
+        <v>-4.9067205313153787E-3</v>
+      </c>
+      <c r="G47" s="14">
+        <f t="shared" si="3"/>
+        <v>-0.49781923531941541</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="8">
+        <f t="shared" si="4"/>
+        <v>9.5000095114691838</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" s="9">
+        <f t="shared" si="0"/>
+        <v>8.7230587223383615E-3</v>
+      </c>
+      <c r="L47" s="1"/>
+      <c r="M47" s="14">
+        <f t="shared" si="5"/>
+        <v>8.7230587223383615E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>40</v>
+      </c>
+      <c r="F48" s="7">
+        <f t="shared" si="2"/>
+        <v>3.9253764250522629E-3</v>
+      </c>
+      <c r="G48" s="14">
+        <f t="shared" si="3"/>
+        <v>-0.50174461174446772</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="8">
+        <f t="shared" si="4"/>
+        <v>9.5000060873402781</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="9">
+        <f t="shared" si="0"/>
+        <v>-6.9784469778708669E-3</v>
+      </c>
+      <c r="L48" s="1"/>
+      <c r="M48" s="14">
+        <f t="shared" si="5"/>
+        <v>-6.9784469778708669E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>41</v>
+      </c>
+      <c r="F49" s="7">
+        <f t="shared" si="2"/>
+        <v>-3.1403011400418903E-3</v>
+      </c>
+      <c r="G49" s="14">
+        <f t="shared" si="3"/>
+        <v>-0.49860431060442584</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="8">
+        <f t="shared" si="4"/>
+        <v>9.5000038958977786</v>
+      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5827575822966491E-3</v>
+      </c>
+      <c r="L49" s="1"/>
+      <c r="M49" s="14">
+        <f t="shared" si="5"/>
+        <v>5.5827575822966491E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>42</v>
+      </c>
+      <c r="F50" s="7">
+        <f t="shared" si="2"/>
+        <v>2.5122409120334924E-3</v>
+      </c>
+      <c r="G50" s="14">
+        <f t="shared" si="3"/>
+        <v>-0.50111655151645929</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="8">
+        <f t="shared" si="4"/>
+        <v>9.500002493374577</v>
+      </c>
+      <c r="J50" s="1"/>
+      <c r="K50" s="9">
+        <f t="shared" si="0"/>
+        <v>-4.4662060658371416E-3</v>
+      </c>
+      <c r="L50" s="1"/>
+      <c r="M50" s="14">
+        <f t="shared" si="5"/>
+        <v>-4.4662060658371416E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>43</v>
+      </c>
+      <c r="F51" s="7">
+        <f t="shared" si="2"/>
+        <v>-2.0097927296267139E-3</v>
+      </c>
+      <c r="G51" s="14">
+        <f t="shared" si="3"/>
+        <v>-0.49910675878683258</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="8">
+        <f t="shared" si="4"/>
+        <v>9.5000015957597306</v>
+      </c>
+      <c r="J51" s="1"/>
+      <c r="K51" s="9">
+        <f t="shared" si="0"/>
+        <v>3.5729648526696689E-3</v>
+      </c>
+      <c r="L51" s="1"/>
+      <c r="M51" s="14">
+        <f t="shared" si="5"/>
+        <v>3.5729648526696689E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>44</v>
+      </c>
+      <c r="F52" s="7">
+        <f t="shared" si="2"/>
+        <v>1.607834183701351E-3</v>
+      </c>
+      <c r="G52" s="14">
+        <f t="shared" si="3"/>
+        <v>-0.50071459297053389</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="8">
+        <f t="shared" si="4"/>
+        <v>9.5000010212862271</v>
+      </c>
+      <c r="J52" s="1"/>
+      <c r="K52" s="9">
+        <f t="shared" si="0"/>
+        <v>-2.8583718821355575E-3</v>
+      </c>
+      <c r="L52" s="1"/>
+      <c r="M52" s="14">
+        <f t="shared" si="5"/>
+        <v>-2.8583718821355575E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>45</v>
+      </c>
+      <c r="F53" s="7">
+        <f t="shared" si="2"/>
+        <v>-1.286267346961001E-3</v>
+      </c>
+      <c r="G53" s="14">
+        <f t="shared" si="3"/>
+        <v>-0.49942832562357287</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="8">
+        <f t="shared" si="4"/>
+        <v>9.5000006536231858</v>
+      </c>
+      <c r="J53" s="1"/>
+      <c r="K53" s="9">
+        <f t="shared" si="0"/>
+        <v>2.2866975057085348E-3</v>
+      </c>
+      <c r="L53" s="1"/>
+      <c r="M53" s="14">
+        <f t="shared" si="5"/>
+        <v>2.2866975057085348E-3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/FINDING MINIMUM OF A FUNCTION.xlsx
+++ b/FINDING MINIMUM OF A FUNCTION.xlsx
@@ -355,14 +355,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -2236,7 +2229,7 @@
   <dimension ref="C2:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2844,7 +2837,7 @@
   <dimension ref="B2:O52"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2854,7 +2847,7 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>13</v>
@@ -2960,30 +2953,30 @@
       </c>
       <c r="F9" s="7">
         <f>B$2*M8</f>
-        <v>12.6</v>
+        <v>4.2</v>
       </c>
       <c r="G9" s="33">
         <f>G8-F9</f>
-        <v>-2.5999999999999996</v>
+        <v>5.8</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="8">
         <f>G$2*G9*G9+I$2*G9+K$2</f>
-        <v>18.319999999999997</v>
+        <v>88.88</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="9">
         <f t="shared" ref="K9:K38" si="0">2*G$2*G9+I$2</f>
-        <v>-8.3999999999999986</v>
+        <v>25.2</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="10">
         <f>K9</f>
-        <v>-8.3999999999999986</v>
+        <v>25.2</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" ref="O9:O21" si="1">I9-K9</f>
-        <v>26.719999999999995</v>
+        <v>63.679999999999993</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
@@ -2992,30 +2985,30 @@
       </c>
       <c r="F10" s="7">
         <f t="shared" ref="F10:F38" si="2">B$2*M9</f>
-        <v>-2.5199999999999996</v>
+        <v>2.52</v>
       </c>
       <c r="G10" s="33">
         <f t="shared" ref="G10:G38" si="3">G9-F10</f>
-        <v>-8.0000000000000071E-2</v>
+        <v>3.28</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="8">
         <f t="shared" ref="I10:I38" si="4">G$2*G10*G10+I$2*G10+K$2</f>
-        <v>9.8528000000000002</v>
+        <v>38.076799999999992</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="9">
         <f t="shared" si="0"/>
-        <v>1.6799999999999997</v>
+        <v>15.12</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="10">
         <f t="shared" ref="M10:M38" si="5">K10</f>
-        <v>1.6799999999999997</v>
+        <v>15.12</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" si="1"/>
-        <v>8.1728000000000005</v>
+        <v>22.956799999999994</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
@@ -3024,30 +3017,30 @@
       </c>
       <c r="F11" s="7">
         <f t="shared" si="2"/>
-        <v>0.50399999999999989</v>
+        <v>1.512</v>
       </c>
       <c r="G11" s="33">
         <f t="shared" si="3"/>
-        <v>-0.58399999999999996</v>
+        <v>1.7679999999999998</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="8">
         <f t="shared" si="4"/>
-        <v>9.5141120000000008</v>
+        <v>19.787647999999997</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="9">
         <f t="shared" si="0"/>
-        <v>-0.33599999999999985</v>
+        <v>9.0719999999999992</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="10">
         <f t="shared" si="5"/>
-        <v>-0.33599999999999985</v>
+        <v>9.0719999999999992</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="1"/>
-        <v>9.8501120000000011</v>
+        <v>10.715647999999998</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
@@ -3056,30 +3049,30 @@
       </c>
       <c r="F12" s="7">
         <f t="shared" si="2"/>
-        <v>-0.10079999999999996</v>
+        <v>0.90720000000000001</v>
       </c>
       <c r="G12" s="33">
         <f t="shared" si="3"/>
-        <v>-0.48320000000000002</v>
+        <v>0.86079999999999979</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="8">
         <f t="shared" si="4"/>
-        <v>9.5005644799999995</v>
+        <v>13.203553279999998</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="9">
         <f t="shared" si="0"/>
-        <v>6.7199999999999926E-2</v>
+        <v>5.4431999999999992</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="10">
         <f t="shared" si="5"/>
-        <v>6.7199999999999926E-2</v>
+        <v>5.4431999999999992</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="1"/>
-        <v>9.4333644799999998</v>
+        <v>7.7603532799999986</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
@@ -3088,30 +3081,30 @@
       </c>
       <c r="F13" s="7">
         <f t="shared" si="2"/>
-        <v>2.0159999999999977E-2</v>
+        <v>0.54431999999999992</v>
       </c>
       <c r="G13" s="33">
         <f t="shared" si="3"/>
-        <v>-0.50336000000000003</v>
+        <v>0.31647999999999987</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="8">
         <f t="shared" si="4"/>
-        <v>9.5000225791999995</v>
+        <v>10.8332791808</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="9">
         <f t="shared" si="0"/>
-        <v>-1.3440000000000119E-2</v>
+        <v>3.2659199999999995</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="10">
         <f t="shared" si="5"/>
-        <v>-1.3440000000000119E-2</v>
+        <v>3.2659199999999995</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="1"/>
-        <v>9.5134625791999987</v>
+        <v>7.5673591808000005</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
@@ -3120,30 +3113,30 @@
       </c>
       <c r="F14" s="7">
         <f t="shared" si="2"/>
-        <v>-4.0320000000000356E-3</v>
+        <v>0.32659199999999999</v>
       </c>
       <c r="G14" s="33">
         <f t="shared" si="3"/>
-        <v>-0.49932799999999999</v>
+        <v>-1.0112000000000121E-2</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="8">
         <f t="shared" si="4"/>
-        <v>9.5000009031680008</v>
+        <v>9.9799805050879993</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="9">
         <f t="shared" si="0"/>
-        <v>2.6880000000000237E-3</v>
+        <v>1.9595519999999995</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="10">
         <f t="shared" si="5"/>
-        <v>2.6880000000000237E-3</v>
+        <v>1.9595519999999995</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" si="1"/>
-        <v>9.4973129031680017</v>
+        <v>8.0204285050879989</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
@@ -3152,30 +3145,30 @@
       </c>
       <c r="F15" s="7">
         <f t="shared" si="2"/>
-        <v>8.0640000000000713E-4</v>
+        <v>0.19595519999999997</v>
       </c>
       <c r="G15" s="33">
         <f t="shared" si="3"/>
-        <v>-0.50013439999999998</v>
+        <v>-0.20606720000000009</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="8">
         <f t="shared" si="4"/>
-        <v>9.5000000361267194</v>
+        <v>9.6727929818316802</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="9">
         <f t="shared" si="0"/>
-        <v>-5.3759999999991592E-4</v>
+        <v>1.1757311999999995</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="10">
         <f t="shared" si="5"/>
-        <v>-5.3759999999991592E-4</v>
+        <v>1.1757311999999995</v>
       </c>
       <c r="O15" s="1">
         <f t="shared" si="1"/>
-        <v>9.5005376361267189</v>
+        <v>8.4970617818316807</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
@@ -3184,30 +3177,30 @@
       </c>
       <c r="F16" s="7">
         <f t="shared" si="2"/>
-        <v>-1.6127999999997477E-4</v>
+        <v>0.11757311999999996</v>
       </c>
       <c r="G16" s="33">
         <f t="shared" si="3"/>
-        <v>-0.49997311999999999</v>
+        <v>-0.32364032000000004</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="8">
         <f t="shared" si="4"/>
-        <v>9.5000000014450681</v>
+        <v>9.5622054734594055</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="9">
         <f t="shared" si="0"/>
-        <v>1.0752000000002759E-4</v>
+        <v>0.70543871999999985</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="10">
         <f t="shared" si="5"/>
-        <v>1.0752000000002759E-4</v>
+        <v>0.70543871999999985</v>
       </c>
       <c r="O16" s="1">
         <f t="shared" si="1"/>
-        <v>9.4998924814450678</v>
+        <v>8.8567667534594055</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
@@ -3216,30 +3209,30 @@
       </c>
       <c r="F17" s="7">
         <f t="shared" si="2"/>
-        <v>3.2256000000008278E-5</v>
+        <v>7.0543871999999994E-2</v>
       </c>
       <c r="G17" s="33">
         <f t="shared" si="3"/>
-        <v>-0.50000537600000006</v>
+        <v>-0.39418419200000004</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="8">
         <f t="shared" si="4"/>
-        <v>9.5000000000578027</v>
+        <v>9.5223939704453855</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="9">
         <f t="shared" si="0"/>
-        <v>-2.1504000000227563E-5</v>
+        <v>0.42326323199999982</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="10">
         <f t="shared" si="5"/>
-        <v>-2.1504000000227563E-5</v>
+        <v>0.42326323199999982</v>
       </c>
       <c r="O17" s="1">
         <f t="shared" si="1"/>
-        <v>9.500021504057802</v>
+        <v>9.0991307384453854</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
@@ -3248,30 +3241,30 @@
       </c>
       <c r="F18" s="7">
         <f t="shared" si="2"/>
-        <v>-6.4512000000682685E-6</v>
+        <v>4.2326323199999988E-2</v>
       </c>
       <c r="G18" s="33">
         <f t="shared" si="3"/>
-        <v>-0.49999892479999997</v>
+        <v>-0.43651051520000006</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="8">
         <f t="shared" si="4"/>
-        <v>9.5000000000023128</v>
+        <v>9.5080618293603383</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="9">
         <f t="shared" si="0"/>
-        <v>4.3008000001343305E-6</v>
+        <v>0.25395793919999976</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="10">
         <f t="shared" si="5"/>
-        <v>4.3008000001343305E-6</v>
+        <v>0.25395793919999976</v>
       </c>
       <c r="O18" s="1">
         <f t="shared" si="1"/>
-        <v>9.4999956992023122</v>
+        <v>9.254103890160339</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
@@ -3280,30 +3273,30 @@
       </c>
       <c r="F19" s="7">
         <f t="shared" si="2"/>
-        <v>1.2902400000402991E-6</v>
+        <v>2.5395793919999979E-2</v>
       </c>
       <c r="G19" s="14">
         <f t="shared" si="3"/>
-        <v>-0.50000021504000003</v>
+        <v>-0.46190630912000002</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="8">
         <f t="shared" si="4"/>
-        <v>9.5000000000000924</v>
+        <v>9.5029022585697227</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="9">
         <f t="shared" si="0"/>
-        <v>-8.6016000011568394E-7</v>
+        <v>0.1523747635199999</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="10">
         <f t="shared" si="5"/>
-        <v>-8.6016000011568394E-7</v>
+        <v>0.1523747635199999</v>
       </c>
       <c r="O19" s="1">
         <f t="shared" si="1"/>
-        <v>9.5000008601600925</v>
+        <v>9.3505274950497235</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
@@ -3312,30 +3305,30 @@
       </c>
       <c r="F20" s="7">
         <f t="shared" si="2"/>
-        <v>-2.5804800003470517E-7</v>
+        <v>1.5237476351999991E-2</v>
       </c>
       <c r="G20" s="14">
         <f t="shared" si="3"/>
-        <v>-0.49999995699200001</v>
+        <v>-0.47714378547200004</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="8">
         <f t="shared" si="4"/>
-        <v>9.5000000000000036</v>
+        <v>9.5010448130851</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="9">
         <f t="shared" si="0"/>
-        <v>1.7203199997872787E-7</v>
+        <v>9.1424858111999852E-2</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="10">
         <f t="shared" si="5"/>
-        <v>1.7203199997872787E-7</v>
+        <v>9.1424858111999852E-2</v>
       </c>
       <c r="O20" s="1">
         <f t="shared" si="1"/>
-        <v>9.4999998279680042</v>
+        <v>9.4096199549731008</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
@@ -3344,30 +3337,30 @@
       </c>
       <c r="F21" s="7">
         <f t="shared" si="2"/>
-        <v>5.1609599993618356E-8</v>
+        <v>9.1424858111999862E-3</v>
       </c>
       <c r="G21" s="14">
         <f t="shared" si="3"/>
-        <v>-0.50000000860159999</v>
+        <v>-0.48628627128320001</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="8">
         <f t="shared" si="4"/>
-        <v>9.5</v>
+        <v>9.5003761327106364</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="9">
         <f t="shared" si="0"/>
-        <v>-3.4406399951336653E-8</v>
+        <v>5.4854914867199955E-2</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="10">
         <f t="shared" si="5"/>
-        <v>-3.4406399951336653E-8</v>
+        <v>5.4854914867199955E-2</v>
       </c>
       <c r="O21" s="1">
         <f t="shared" si="1"/>
-        <v>9.5000000344063995</v>
+        <v>9.4455212178434369</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
@@ -3376,30 +3369,30 @@
       </c>
       <c r="F22" s="7">
         <f t="shared" si="2"/>
-        <v>-1.0321919985400996E-8</v>
+        <v>5.4854914867199962E-3</v>
       </c>
       <c r="G22" s="14">
         <f t="shared" si="3"/>
-        <v>-0.49999999827968</v>
+        <v>-0.49177176276992002</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="8">
         <f t="shared" si="4"/>
-        <v>9.5</v>
+        <v>9.5001354077758293</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="9">
         <f t="shared" si="0"/>
-        <v>6.8812799902673305E-9</v>
+        <v>3.2912948920319929E-2</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="14">
         <f t="shared" si="5"/>
-        <v>6.8812799902673305E-9</v>
+        <v>3.2912948920319929E-2</v>
       </c>
       <c r="O22" s="1">
         <f>I22-K22</f>
-        <v>9.4999999931187205</v>
+        <v>9.4672224588555096</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
@@ -3408,30 +3401,30 @@
       </c>
       <c r="F23" s="7">
         <f t="shared" si="2"/>
-        <v>2.0643839970801992E-9</v>
+        <v>3.2912948920319931E-3</v>
       </c>
       <c r="G23" s="14">
         <f t="shared" si="3"/>
-        <v>-0.500000000344064</v>
+        <v>-0.49506305766195202</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="8">
         <f t="shared" si="4"/>
-        <v>9.5</v>
+        <v>9.5000487467992976</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="9">
         <f t="shared" si="0"/>
-        <v>-1.3762559980534661E-9</v>
+        <v>1.9747769352191913E-2</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="14">
         <f t="shared" si="5"/>
-        <v>-1.3762559980534661E-9</v>
+        <v>1.9747769352191913E-2</v>
       </c>
       <c r="O23" s="1">
         <f t="shared" ref="O23:O33" si="6">I23-K23</f>
-        <v>9.5000000013762556</v>
+        <v>9.4803009774471061</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
@@ -3440,30 +3433,30 @@
       </c>
       <c r="F24" s="7">
         <f t="shared" si="2"/>
-        <v>-4.1287679941603984E-10</v>
+        <v>1.9747769352191913E-3</v>
       </c>
       <c r="G24" s="14">
         <f t="shared" si="3"/>
-        <v>-0.49999999993118721</v>
+        <v>-0.49703783459717121</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="8">
         <f t="shared" si="4"/>
-        <v>9.5</v>
+        <v>9.5000175488477474</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="9">
         <f t="shared" si="0"/>
-        <v>2.7525115520177224E-10</v>
+        <v>1.1848661611315148E-2</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="14">
         <f t="shared" si="5"/>
-        <v>2.7525115520177224E-10</v>
+        <v>1.1848661611315148E-2</v>
       </c>
       <c r="O24" s="1">
         <f t="shared" si="6"/>
-        <v>9.4999999997247482</v>
+        <v>9.4881688872364318</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
@@ -3472,30 +3465,30 @@
       </c>
       <c r="F25" s="7">
         <f t="shared" si="2"/>
-        <v>8.2575346560531668E-11</v>
+        <v>1.1848661611315149E-3</v>
       </c>
       <c r="G25" s="14">
         <f t="shared" si="3"/>
-        <v>-0.50000000001376255</v>
+        <v>-0.49822270075830272</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="8">
         <f t="shared" si="4"/>
-        <v>9.5</v>
+        <v>9.5000063175851892</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="9">
         <f t="shared" si="0"/>
-        <v>-5.5050186631433462E-11</v>
+        <v>7.109196966789133E-3</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="14">
         <f t="shared" si="5"/>
-        <v>-5.5050186631433462E-11</v>
+        <v>7.109196966789133E-3</v>
       </c>
       <c r="O25" s="1">
         <f t="shared" si="6"/>
-        <v>9.5000000000550493</v>
+        <v>9.4928971206183999</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
@@ -3504,30 +3497,30 @@
       </c>
       <c r="F26" s="7">
         <f t="shared" si="2"/>
-        <v>-1.6515055989430038E-11</v>
+        <v>7.109196966789133E-4</v>
       </c>
       <c r="G26" s="14">
         <f t="shared" si="3"/>
-        <v>-0.49999999999724748</v>
+        <v>-0.49893362045498163</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="8">
         <f t="shared" si="4"/>
-        <v>9.5</v>
+        <v>9.5000022743306687</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="9">
         <f t="shared" si="0"/>
-        <v>1.1010081735207677E-11</v>
+        <v>4.2655181800734798E-3</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="14">
         <f t="shared" si="5"/>
-        <v>1.1010081735207677E-11</v>
+        <v>4.2655181800734798E-3</v>
       </c>
       <c r="O26" s="1">
         <f t="shared" si="6"/>
-        <v>9.4999999999889901</v>
+        <v>9.4957367561505954</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
@@ -3536,30 +3529,30 @@
       </c>
       <c r="F27" s="7">
         <f t="shared" si="2"/>
-        <v>3.3030245205623032E-12</v>
+        <v>4.26551818007348E-4</v>
       </c>
       <c r="G27" s="14">
         <f t="shared" si="3"/>
-        <v>-0.50000000000055045</v>
+        <v>-0.49936017227298896</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="8">
         <f t="shared" si="4"/>
-        <v>9.5</v>
+        <v>9.500000818759041</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="9">
         <f t="shared" si="0"/>
-        <v>-2.2017943024366105E-12</v>
+        <v>2.5593109080441767E-3</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="14">
         <f t="shared" si="5"/>
-        <v>-2.2017943024366105E-12</v>
+        <v>2.5593109080441767E-3</v>
       </c>
       <c r="O27" s="1">
         <f t="shared" si="6"/>
-        <v>9.5000000000022027</v>
+        <v>9.4974415078509971</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
@@ -3568,30 +3561,30 @@
       </c>
       <c r="F28" s="7">
         <f t="shared" si="2"/>
-        <v>-6.6053829073098307E-13</v>
+        <v>2.5593109080441768E-4</v>
       </c>
       <c r="G28" s="14">
         <f t="shared" si="3"/>
-        <v>-0.49999999999988992</v>
+        <v>-0.49961610336379336</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="8">
         <f t="shared" si="4"/>
-        <v>9.5</v>
+        <v>9.5000002947532547</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="9">
         <f t="shared" si="0"/>
-        <v>4.4031445156633708E-13</v>
+        <v>1.5355865448265504E-3</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="14">
         <f t="shared" si="5"/>
-        <v>4.4031445156633708E-13</v>
+        <v>1.5355865448265504E-3</v>
       </c>
       <c r="O28" s="1">
         <f t="shared" si="6"/>
-        <v>9.4999999999995595</v>
+        <v>9.4984647082084273</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
@@ -3600,30 +3593,30 @@
       </c>
       <c r="F29" s="7">
         <f t="shared" si="2"/>
-        <v>1.3209433546990112E-13</v>
+        <v>1.5355865448265507E-4</v>
       </c>
       <c r="G29" s="14">
         <f t="shared" si="3"/>
-        <v>-0.50000000000002198</v>
+        <v>-0.499769662018276</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="8">
         <f t="shared" si="4"/>
-        <v>9.5</v>
+        <v>9.5000001061111714</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="9">
         <f t="shared" si="0"/>
-        <v>-8.7929663550312398E-14</v>
+        <v>9.2135192689601908E-4</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="14">
         <f t="shared" si="5"/>
-        <v>-8.7929663550312398E-14</v>
+        <v>9.2135192689601908E-4</v>
       </c>
       <c r="O29" s="1">
         <f t="shared" si="6"/>
-        <v>9.5000000000000888</v>
+        <v>9.4990787541842749</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
@@ -3632,30 +3625,30 @@
       </c>
       <c r="F30" s="7">
         <f t="shared" si="2"/>
-        <v>-2.6378899065093719E-14</v>
+        <v>9.2135192689601916E-5</v>
       </c>
       <c r="G30" s="14">
         <f t="shared" si="3"/>
-        <v>-0.49999999999999561</v>
+        <v>-0.49986179721096557</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="8">
         <f t="shared" si="4"/>
-        <v>9.5</v>
+        <v>9.5000000382000209</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="9">
         <f t="shared" si="0"/>
-        <v>1.7541523789077473E-14</v>
+        <v>5.5281115613770027E-4</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="14">
         <f t="shared" si="5"/>
-        <v>1.7541523789077473E-14</v>
+        <v>5.5281115613770027E-4</v>
       </c>
       <c r="O30" s="1">
         <f t="shared" si="6"/>
-        <v>9.4999999999999822</v>
+        <v>9.4994472270438841</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
@@ -3664,30 +3657,30 @@
       </c>
       <c r="F31" s="7">
         <f t="shared" si="2"/>
-        <v>5.2624571367232418E-15</v>
+        <v>5.5281115613770031E-5</v>
       </c>
       <c r="G31" s="14">
         <f t="shared" si="3"/>
-        <v>-0.50000000000000089</v>
+        <v>-0.49991707832657933</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="8">
         <f t="shared" si="4"/>
-        <v>9.5</v>
+        <v>9.5000000137520075</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="9">
         <f t="shared" si="0"/>
-        <v>-3.5527136788005009E-15</v>
+        <v>3.3168669368266457E-4</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="14">
         <f t="shared" si="5"/>
-        <v>-3.5527136788005009E-15</v>
+        <v>3.3168669368266457E-4</v>
       </c>
       <c r="O31" s="1">
         <f t="shared" si="6"/>
-        <v>9.5000000000000036</v>
+        <v>9.4996683270583251</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
@@ -3696,30 +3689,30 @@
       </c>
       <c r="F32" s="7">
         <f t="shared" si="2"/>
-        <v>-1.0658141036401502E-15</v>
+        <v>3.3168669368266461E-5</v>
       </c>
       <c r="G32" s="14">
         <f t="shared" si="3"/>
-        <v>-0.49999999999999983</v>
+        <v>-0.49995024699594759</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="8">
         <f t="shared" si="4"/>
-        <v>9.5</v>
+        <v>9.5000000049507225</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9901201620964315E-4</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.9901201620964315E-4</v>
       </c>
       <c r="O32" s="1">
         <f t="shared" si="6"/>
-        <v>9.5</v>
+        <v>9.4998009929345137</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
@@ -3728,30 +3721,30 @@
       </c>
       <c r="F33" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.9901201620964317E-5</v>
       </c>
       <c r="G33" s="14">
         <f t="shared" si="3"/>
-        <v>-0.49999999999999983</v>
+        <v>-0.49997014819756858</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="8">
         <f t="shared" si="4"/>
-        <v>9.5</v>
+        <v>9.5000000017822597</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.1940720972569707E-4</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.1940720972569707E-4</v>
       </c>
       <c r="O33" s="1">
         <f t="shared" si="6"/>
-        <v>9.5</v>
+        <v>9.4998805945725344</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
@@ -3760,26 +3753,26 @@
       </c>
       <c r="F34" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.1940720972569709E-5</v>
       </c>
       <c r="G34" s="14">
         <f t="shared" si="3"/>
-        <v>-0.49999999999999983</v>
+        <v>-0.49998208891854112</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="8">
         <f t="shared" si="4"/>
-        <v>9.5</v>
+        <v>9.500000000641613</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.1644325835507061E-5</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7.1644325835507061E-5</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
@@ -3788,26 +3781,26 @@
       </c>
       <c r="F35" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.1644325835507066E-6</v>
       </c>
       <c r="G35" s="14">
         <f t="shared" si="3"/>
-        <v>-0.49999999999999983</v>
+        <v>-0.49998925335112465</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="8">
         <f t="shared" si="4"/>
-        <v>9.5</v>
+        <v>9.5000000002309815</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.2986595501393055E-5</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.2986595501393055E-5</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
@@ -3816,26 +3809,26 @@
       </c>
       <c r="F36" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.2986595501393056E-6</v>
       </c>
       <c r="G36" s="14">
         <f t="shared" si="3"/>
-        <v>-0.49999999999999983</v>
+        <v>-0.4999935520106748</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="8">
         <f t="shared" si="4"/>
-        <v>9.5</v>
+        <v>9.500000000083153</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5791957300791424E-5</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.5791957300791424E-5</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
@@ -3844,26 +3837,26 @@
       </c>
       <c r="F37" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.5791957300791427E-6</v>
       </c>
       <c r="G37" s="14">
         <f t="shared" si="3"/>
-        <v>-0.49999999999999983</v>
+        <v>-0.4999961312064049</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="8">
         <f t="shared" si="4"/>
-        <v>9.5</v>
+        <v>9.5000000000299352</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5475174380386036E-5</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.5475174380386036E-5</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
@@ -3872,26 +3865,26 @@
       </c>
       <c r="F38" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.5475174380386037E-6</v>
       </c>
       <c r="G38" s="14">
         <f t="shared" si="3"/>
-        <v>-0.49999999999999983</v>
+        <v>-0.49999767872384293</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="8">
         <f t="shared" si="4"/>
-        <v>9.5</v>
+        <v>9.5000000000107772</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.2851046282760308E-6</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.2851046282760308E-6</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
@@ -3900,26 +3893,26 @@
       </c>
       <c r="F39" s="7">
         <f t="shared" ref="F39:F52" si="7">B$2*M38</f>
-        <v>0</v>
+        <v>9.285104628276031E-7</v>
       </c>
       <c r="G39" s="14">
         <f t="shared" ref="G39:G52" si="8">G38-F39</f>
-        <v>-0.49999999999999983</v>
+        <v>-0.49999860723430578</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="8">
         <f t="shared" ref="I39:I52" si="9">G$2*G39*G39+I$2*G39+K$2</f>
-        <v>9.5</v>
+        <v>9.5000000000038796</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="9">
         <f t="shared" ref="K39:K52" si="10">2*G$2*G39+I$2</f>
-        <v>0</v>
+        <v>5.5710627768768006E-6</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="14">
         <f t="shared" ref="M39:M52" si="11">K39</f>
-        <v>0</v>
+        <v>5.5710627768768006E-6</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
@@ -3928,26 +3921,26 @@
       </c>
       <c r="F40" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5.5710627768768004E-7</v>
       </c>
       <c r="G40" s="14">
         <f t="shared" si="8"/>
-        <v>-0.49999999999999983</v>
+        <v>-0.49999916434058345</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="8">
         <f t="shared" si="9"/>
-        <v>9.5</v>
+        <v>9.5000000000013962</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="9">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3.3426376662148982E-6</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3.3426376662148982E-6</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
@@ -3956,26 +3949,26 @@
       </c>
       <c r="F41" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.3426376662148986E-7</v>
       </c>
       <c r="G41" s="14">
         <f t="shared" si="8"/>
-        <v>-0.49999999999999983</v>
+        <v>-0.49999949860435006</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="8">
         <f t="shared" si="9"/>
-        <v>9.5</v>
+        <v>9.5000000000005027</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="9">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2.0055825997733479E-6</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2.0055825997733479E-6</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
@@ -3984,26 +3977,26 @@
       </c>
       <c r="F42" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.0055825997733481E-7</v>
       </c>
       <c r="G42" s="14">
         <f t="shared" si="8"/>
-        <v>-0.49999999999999983</v>
+        <v>-0.49999969916261006</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="8">
         <f t="shared" si="9"/>
-        <v>9.5</v>
+        <v>9.5000000000001812</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="9">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1.2033495597751909E-6</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1.2033495597751909E-6</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
@@ -4012,26 +4005,26 @@
       </c>
       <c r="F43" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.2033495597751908E-7</v>
       </c>
       <c r="G43" s="14">
         <f t="shared" si="8"/>
-        <v>-0.49999999999999983</v>
+        <v>-0.49999981949756606</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="8">
         <f t="shared" si="9"/>
-        <v>9.5</v>
+        <v>9.5000000000000657</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="9">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>7.2200973577629668E-7</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>7.2200973577629668E-7</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
@@ -4040,26 +4033,26 @@
       </c>
       <c r="F44" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>7.2200973577629679E-8</v>
       </c>
       <c r="G44" s="14">
         <f t="shared" si="8"/>
-        <v>-0.49999999999999983</v>
+        <v>-0.49999989169853964</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="8">
         <f t="shared" si="9"/>
-        <v>9.5</v>
+        <v>9.5000000000000231</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="9">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4.3320584142136909E-7</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4.3320584142136909E-7</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
@@ -4068,26 +4061,26 @@
       </c>
       <c r="F45" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4.3320584142136914E-8</v>
       </c>
       <c r="G45" s="14">
         <f t="shared" si="8"/>
-        <v>-0.49999999999999983</v>
+        <v>-0.49999993501912376</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="8">
         <f t="shared" si="9"/>
-        <v>9.5</v>
+        <v>9.5000000000000089</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="9">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2.5992350494163929E-7</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2.5992350494163929E-7</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
@@ -4096,26 +4089,26 @@
       </c>
       <c r="F46" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.5992350494163929E-8</v>
       </c>
       <c r="G46" s="14">
         <f t="shared" si="8"/>
-        <v>-0.49999999999999983</v>
+        <v>-0.49999996101147426</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="8">
         <f t="shared" si="9"/>
-        <v>9.5</v>
+        <v>9.5000000000000036</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="9">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1.5595410296498358E-7</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1.5595410296498358E-7</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
@@ -4124,26 +4117,26 @@
       </c>
       <c r="F47" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.5595410296498358E-8</v>
       </c>
       <c r="G47" s="14">
         <f t="shared" si="8"/>
-        <v>-0.49999999999999983</v>
+        <v>-0.49999997660688456</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="8">
         <f t="shared" si="9"/>
-        <v>9.5</v>
+        <v>9.5000000000000018</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="9">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>9.3572461778990146E-8</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>9.3572461778990146E-8</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
@@ -4152,11 +4145,11 @@
       </c>
       <c r="F48" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>9.3572461778990159E-9</v>
       </c>
       <c r="G48" s="14">
         <f t="shared" si="8"/>
-        <v>-0.49999999999999983</v>
+        <v>-0.49999998596413076</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="8">
@@ -4166,12 +4159,12 @@
       <c r="J48" s="1"/>
       <c r="K48" s="9">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5.6143476978576246E-8</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5.6143476978576246E-8</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
@@ -4180,11 +4173,11 @@
       </c>
       <c r="F49" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5.6143476978576252E-9</v>
       </c>
       <c r="G49" s="14">
         <f t="shared" si="8"/>
-        <v>-0.49999999999999983</v>
+        <v>-0.49999999157847846</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="8">
@@ -4194,12 +4187,12 @@
       <c r="J49" s="1"/>
       <c r="K49" s="9">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3.3686086142736826E-8</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3.3686086142736826E-8</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
@@ -4208,11 +4201,11 @@
       </c>
       <c r="F50" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.3686086142736826E-9</v>
       </c>
       <c r="G50" s="14">
         <f t="shared" si="8"/>
-        <v>-0.49999999999999983</v>
+        <v>-0.49999999494708708</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="8">
@@ -4222,12 +4215,12 @@
       <c r="J50" s="1"/>
       <c r="K50" s="9">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2.0211651685642096E-8</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2.0211651685642096E-8</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
@@ -4236,11 +4229,11 @@
       </c>
       <c r="F51" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.0211651685642098E-9</v>
       </c>
       <c r="G51" s="14">
         <f t="shared" si="8"/>
-        <v>-0.49999999999999983</v>
+        <v>-0.49999999696825226</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="8">
@@ -4250,12 +4243,12 @@
       <c r="J51" s="1"/>
       <c r="K51" s="9">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1.2126990966976336E-8</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1.2126990966976336E-8</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
@@ -4264,11 +4257,11 @@
       </c>
       <c r="F52" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.2126990966976337E-9</v>
       </c>
       <c r="G52" s="14">
         <f t="shared" si="8"/>
-        <v>-0.49999999999999983</v>
+        <v>-0.49999999818095137</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="8">
@@ -4278,12 +4271,12 @@
       <c r="J52" s="1"/>
       <c r="K52" s="9">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>7.2761945357768809E-9</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="14">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>7.2761945357768809E-9</v>
       </c>
     </row>
   </sheetData>

--- a/FINDING MINIMUM OF A FUNCTION.xlsx
+++ b/FINDING MINIMUM OF A FUNCTION.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FUNCTION" sheetId="1" r:id="rId1"/>
@@ -1144,6 +1144,249 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
+              <c:f>BatchGradientDescent!$G$8:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7679999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86079999999999979</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31647999999999987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.0112000000000121E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.20606720000000009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.32364032000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.39418419200000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.43651051520000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.46190630912000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.47714378547200004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>BatchGradientDescent!$H$8:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="13"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>BatchGradientDescent!$G$8:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7679999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86079999999999979</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31647999999999987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.0112000000000121E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.20606720000000009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.32364032000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.39418419200000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.43651051520000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.46190630912000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.47714378547200004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>BatchGradientDescent!$I$8:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.076799999999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.787647999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.203553279999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.8332791808</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.9799805050879993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.6727929818316802</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.5622054734594055</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.5223939704453855</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.5080618293603383</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.5029022585697227</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.5010448130851</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="221188096"/>
+        <c:axId val="182571392"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="221188096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="182571392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="182571392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="221188096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="bg-BG"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
               <c:f>WITH_BIG_ALPHA!$G$9:$G$53</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
@@ -1650,7 +1893,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="bg-BG"/>
@@ -1875,6 +2118,41 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2228,8 +2506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:U48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2836,8 +3114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O52"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4282,6 +4560,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/FINDING MINIMUM OF A FUNCTION.xlsx
+++ b/FINDING MINIMUM OF A FUNCTION.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="FUNCTION" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>f(x) = ax2 + bx + c</t>
   </si>
@@ -77,6 +77,15 @@
   <si>
     <t>HERE WE SEE AT BIG APLPHA HOW THE ALGORITHM JUMP OVER THE MINIMUM OF THE FUNCTION TILL FIND THE MINIMUM!</t>
   </si>
+  <si>
+    <t>used to vizualize function (green)</t>
+  </si>
+  <si>
+    <t>inital X</t>
+  </si>
+  <si>
+    <t>this vizualize oscilating (zig-zaging) problem if learning rate is too high!!!</t>
+  </si>
 </sst>
 </file>
 
@@ -105,7 +114,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +196,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -351,19 +366,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
@@ -695,11 +706,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="169141376"/>
-        <c:axId val="169142912"/>
+        <c:axId val="167835136"/>
+        <c:axId val="167836672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="169141376"/>
+        <c:axId val="167835136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -708,7 +719,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169142912"/>
+        <c:crossAx val="167836672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -716,7 +727,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169142912"/>
+        <c:axId val="167836672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -727,7 +738,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169141376"/>
+        <c:crossAx val="167835136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1065,11 +1076,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="5947392"/>
-        <c:axId val="5948928"/>
+        <c:axId val="168263040"/>
+        <c:axId val="168268928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="5947392"/>
+        <c:axId val="168263040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1078,7 +1089,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="5948928"/>
+        <c:crossAx val="168268928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1086,7 +1097,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="5948928"/>
+        <c:axId val="168268928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1097,7 +1108,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="5947392"/>
+        <c:crossAx val="168263040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1310,11 +1321,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="221188096"/>
-        <c:axId val="182571392"/>
+        <c:axId val="168294656"/>
+        <c:axId val="168652800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="221188096"/>
+        <c:axId val="168294656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1324,12 +1335,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182571392"/>
+        <c:crossAx val="168652800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="182571392"/>
+        <c:axId val="168652800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1340,7 +1351,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221188096"/>
+        <c:crossAx val="168294656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1833,6 +1844,278 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>function</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>WITH_BIG_ALPHA!$D$9:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-6.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-8.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-9.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>WITH_BIG_ALPHA!$Q$9:$Q$49</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>209.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>171.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>137.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>81.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>81.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>137.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>171.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>190</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1841,11 +2124,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="219628672"/>
-        <c:axId val="219606016"/>
+        <c:axId val="168970496"/>
+        <c:axId val="168976384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="219628672"/>
+        <c:axId val="168970496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1855,12 +2138,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219606016"/>
+        <c:crossAx val="168976384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="219606016"/>
+        <c:axId val="168976384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1871,7 +2154,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219628672"/>
+        <c:crossAx val="168970496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1885,165 +2168,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="bg-BG"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10093103182949037"/>
-          <c:y val="2.7196673449526674E-2"/>
-          <c:w val="0.64238862243196804"/>
-          <c:h val="0.91875466690259222"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>WITH_BIG_ALPHA!$I$9:$I$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>150.62000000000006</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>99.816800000000057</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>67.302752000000055</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>46.493761280000044</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>33.176007219200031</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24.652644620288022</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19.197692556984336</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15.706523236469977</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13.472174871340787</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.042191917658103</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.127002827301187</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.541281809472759</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.166420358062567</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.9265090291600426</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="172757376"/>
-        <c:axId val="172758912"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="172757376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172758912"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="172758912"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172757376"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -2156,16 +2280,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2179,36 +2303,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2507,7 +2601,7 @@
   <dimension ref="C2:U48"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2573,7 +2667,7 @@
         <v>-10</v>
       </c>
       <c r="E8" s="24">
-        <f>Q$2*C8*C8+S$2*C8+U$2</f>
+        <f t="shared" ref="E8:E48" si="0">Q$2*C8*C8+S$2*C8+U$2</f>
         <v>190</v>
       </c>
       <c r="K8" s="23">
@@ -2586,11 +2680,11 @@
         <v>-9.5</v>
       </c>
       <c r="E9" s="24">
-        <f>Q$2*C9*C9+S$2*C9+U$2</f>
+        <f t="shared" si="0"/>
         <v>171.5</v>
       </c>
       <c r="K9" s="23">
-        <f t="shared" ref="K9:K48" si="0">2*Q$2*C9+S$2</f>
+        <f t="shared" ref="K9:K48" si="1">2*Q$2*C9+S$2</f>
         <v>-36</v>
       </c>
     </row>
@@ -2599,11 +2693,11 @@
         <v>-9</v>
       </c>
       <c r="E10" s="24">
-        <f>Q$2*C10*C10+S$2*C10+U$2</f>
+        <f t="shared" si="0"/>
         <v>154</v>
       </c>
       <c r="K10" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-34</v>
       </c>
     </row>
@@ -2612,11 +2706,11 @@
         <v>-8.5</v>
       </c>
       <c r="E11" s="24">
-        <f>Q$2*C11*C11+S$2*C11+U$2</f>
+        <f t="shared" si="0"/>
         <v>137.5</v>
       </c>
       <c r="K11" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-32</v>
       </c>
     </row>
@@ -2625,11 +2719,11 @@
         <v>-8</v>
       </c>
       <c r="E12" s="24">
-        <f>Q$2*C12*C12+S$2*C12+U$2</f>
+        <f t="shared" si="0"/>
         <v>122</v>
       </c>
       <c r="K12" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-30</v>
       </c>
     </row>
@@ -2638,11 +2732,11 @@
         <v>-7.5</v>
       </c>
       <c r="E13" s="24">
-        <f>Q$2*C13*C13+S$2*C13+U$2</f>
+        <f t="shared" si="0"/>
         <v>107.5</v>
       </c>
       <c r="K13" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-28</v>
       </c>
     </row>
@@ -2651,11 +2745,11 @@
         <v>-7</v>
       </c>
       <c r="E14" s="24">
-        <f>Q$2*C14*C14+S$2*C14+U$2</f>
+        <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="K14" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-26</v>
       </c>
     </row>
@@ -2664,11 +2758,11 @@
         <v>-6.5</v>
       </c>
       <c r="E15" s="24">
-        <f>Q$2*C15*C15+S$2*C15+U$2</f>
+        <f t="shared" si="0"/>
         <v>81.5</v>
       </c>
       <c r="K15" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-24</v>
       </c>
     </row>
@@ -2677,11 +2771,11 @@
         <v>-6</v>
       </c>
       <c r="E16" s="24">
-        <f>Q$2*C16*C16+S$2*C16+U$2</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="K16" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-22</v>
       </c>
     </row>
@@ -2690,11 +2784,11 @@
         <v>-5.5</v>
       </c>
       <c r="E17" s="24">
-        <f>Q$2*C17*C17+S$2*C17+U$2</f>
+        <f t="shared" si="0"/>
         <v>59.5</v>
       </c>
       <c r="K17" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-20</v>
       </c>
     </row>
@@ -2703,11 +2797,11 @@
         <v>-5</v>
       </c>
       <c r="E18" s="24">
-        <f>Q$2*C18*C18+S$2*C18+U$2</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="K18" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-18</v>
       </c>
     </row>
@@ -2716,11 +2810,11 @@
         <v>-4.5</v>
       </c>
       <c r="E19" s="24">
-        <f>Q$2*C19*C19+S$2*C19+U$2</f>
+        <f t="shared" si="0"/>
         <v>41.5</v>
       </c>
       <c r="K19" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-16</v>
       </c>
     </row>
@@ -2729,11 +2823,11 @@
         <v>-4</v>
       </c>
       <c r="E20" s="24">
-        <f>Q$2*C20*C20+S$2*C20+U$2</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="K20" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-14</v>
       </c>
     </row>
@@ -2742,11 +2836,11 @@
         <v>-3.5</v>
       </c>
       <c r="E21" s="24">
-        <f>Q$2*C21*C21+S$2*C21+U$2</f>
+        <f t="shared" si="0"/>
         <v>27.5</v>
       </c>
       <c r="K21" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-12</v>
       </c>
     </row>
@@ -2755,11 +2849,11 @@
         <v>-3</v>
       </c>
       <c r="E22" s="24">
-        <f>Q$2*C22*C22+S$2*C22+U$2</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="K22" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-10</v>
       </c>
     </row>
@@ -2768,11 +2862,11 @@
         <v>-2.5</v>
       </c>
       <c r="E23" s="24">
-        <f>Q$2*C23*C23+S$2*C23+U$2</f>
+        <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
       <c r="K23" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-8</v>
       </c>
     </row>
@@ -2781,11 +2875,11 @@
         <v>-2</v>
       </c>
       <c r="E24" s="24">
-        <f>Q$2*C24*C24+S$2*C24+U$2</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="K24" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-6</v>
       </c>
     </row>
@@ -2794,11 +2888,11 @@
         <v>-1.5</v>
       </c>
       <c r="E25" s="24">
-        <f>Q$2*C25*C25+S$2*C25+U$2</f>
+        <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
       <c r="K25" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
     </row>
@@ -2807,11 +2901,11 @@
         <v>-1</v>
       </c>
       <c r="E26" s="24">
-        <f>Q$2*C26*C26+S$2*C26+U$2</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K26" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
     </row>
@@ -2820,14 +2914,14 @@
         <v>-0.5</v>
       </c>
       <c r="E27" s="14">
-        <f>Q$2*C27*C27+S$2*C27+U$2</f>
+        <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
       <c r="G27" t="s">
         <v>8</v>
       </c>
       <c r="K27" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2836,11 +2930,11 @@
         <v>0</v>
       </c>
       <c r="E28" s="24">
-        <f>Q$2*C28*C28+S$2*C28+U$2</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K28" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2849,11 +2943,11 @@
         <v>0.5</v>
       </c>
       <c r="E29" s="24">
-        <f>Q$2*C29*C29+S$2*C29+U$2</f>
+        <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
       <c r="K29" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -2862,11 +2956,11 @@
         <v>1</v>
       </c>
       <c r="E30" s="24">
-        <f>Q$2*C30*C30+S$2*C30+U$2</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="K30" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -2875,11 +2969,11 @@
         <v>1.5</v>
       </c>
       <c r="E31" s="24">
-        <f>Q$2*C31*C31+S$2*C31+U$2</f>
+        <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
       <c r="K31" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -2888,11 +2982,11 @@
         <v>2</v>
       </c>
       <c r="E32" s="24">
-        <f>Q$2*C32*C32+S$2*C32+U$2</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="K32" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -2901,11 +2995,11 @@
         <v>2.5</v>
       </c>
       <c r="E33" s="24">
-        <f>Q$2*C33*C33+S$2*C33+U$2</f>
+        <f t="shared" si="0"/>
         <v>27.5</v>
       </c>
       <c r="K33" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -2914,11 +3008,11 @@
         <v>3</v>
       </c>
       <c r="E34" s="24">
-        <f>Q$2*C34*C34+S$2*C34+U$2</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="K34" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
@@ -2927,11 +3021,11 @@
         <v>3.5</v>
       </c>
       <c r="E35" s="24">
-        <f>Q$2*C35*C35+S$2*C35+U$2</f>
+        <f t="shared" si="0"/>
         <v>41.5</v>
       </c>
       <c r="K35" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
@@ -2940,11 +3034,11 @@
         <v>4</v>
       </c>
       <c r="E36" s="24">
-        <f>Q$2*C36*C36+S$2*C36+U$2</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="K36" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
@@ -2953,11 +3047,11 @@
         <v>4.5</v>
       </c>
       <c r="E37" s="24">
-        <f>Q$2*C37*C37+S$2*C37+U$2</f>
+        <f t="shared" si="0"/>
         <v>59.5</v>
       </c>
       <c r="K37" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -2966,11 +3060,11 @@
         <v>5</v>
       </c>
       <c r="E38" s="24">
-        <f>Q$2*C38*C38+S$2*C38+U$2</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="K38" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
     </row>
@@ -2979,11 +3073,11 @@
         <v>5.5</v>
       </c>
       <c r="E39" s="24">
-        <f>Q$2*C39*C39+S$2*C39+U$2</f>
+        <f t="shared" si="0"/>
         <v>81.5</v>
       </c>
       <c r="K39" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
@@ -2992,11 +3086,11 @@
         <v>6</v>
       </c>
       <c r="E40" s="24">
-        <f>Q$2*C40*C40+S$2*C40+U$2</f>
+        <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="K40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
@@ -3005,11 +3099,11 @@
         <v>6.5</v>
       </c>
       <c r="E41" s="24">
-        <f>Q$2*C41*C41+S$2*C41+U$2</f>
+        <f t="shared" si="0"/>
         <v>107.5</v>
       </c>
       <c r="K41" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
     </row>
@@ -3018,11 +3112,11 @@
         <v>7</v>
       </c>
       <c r="E42" s="24">
-        <f>Q$2*C42*C42+S$2*C42+U$2</f>
+        <f t="shared" si="0"/>
         <v>122</v>
       </c>
       <c r="K42" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -3031,11 +3125,11 @@
         <v>7.5</v>
       </c>
       <c r="E43" s="24">
-        <f>Q$2*C43*C43+S$2*C43+U$2</f>
+        <f t="shared" si="0"/>
         <v>137.5</v>
       </c>
       <c r="K43" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
     </row>
@@ -3044,11 +3138,11 @@
         <v>8</v>
       </c>
       <c r="E44" s="24">
-        <f>Q$2*C44*C44+S$2*C44+U$2</f>
+        <f t="shared" si="0"/>
         <v>154</v>
       </c>
       <c r="K44" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
     </row>
@@ -3057,11 +3151,11 @@
         <v>8.5</v>
       </c>
       <c r="E45" s="24">
-        <f>Q$2*C45*C45+S$2*C45+U$2</f>
+        <f t="shared" si="0"/>
         <v>171.5</v>
       </c>
       <c r="K45" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -3070,11 +3164,11 @@
         <v>9</v>
       </c>
       <c r="E46" s="24">
-        <f>Q$2*C46*C46+S$2*C46+U$2</f>
+        <f t="shared" si="0"/>
         <v>190</v>
       </c>
       <c r="K46" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
     </row>
@@ -3083,11 +3177,11 @@
         <v>9.5</v>
       </c>
       <c r="E47" s="24">
-        <f>Q$2*C47*C47+S$2*C47+U$2</f>
+        <f t="shared" si="0"/>
         <v>209.5</v>
       </c>
       <c r="K47" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
@@ -3096,11 +3190,11 @@
         <v>10</v>
       </c>
       <c r="E48" s="24">
-        <f>Q$2*C48*C48+S$2*C48+U$2</f>
+        <f t="shared" si="0"/>
         <v>230</v>
       </c>
       <c r="K48" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
     </row>
@@ -3114,8 +3208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="W32" sqref="W32"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4566,10 +4660,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O53"/>
+  <dimension ref="B2:AJ53"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="R37" sqref="R37"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4577,7 +4671,7 @@
     <col min="11" max="11" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B2" s="4">
         <v>0.45</v>
       </c>
@@ -4606,8 +4700,25 @@
       <c r="M2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="V2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+    </row>
+    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>0.1</v>
       </c>
@@ -4615,7 +4726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D4" s="30" t="s">
         <v>19</v>
       </c>
@@ -4631,7 +4742,7 @@
       <c r="N4" s="31"/>
       <c r="O4" s="32"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>17</v>
       </c>
@@ -4639,7 +4750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
@@ -4661,12 +4772,20 @@
       <c r="M7" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="36">
         <v>10</v>
       </c>
       <c r="F9" s="2"/>
@@ -4689,10 +4808,17 @@
         <f>I9-K9</f>
         <v>188</v>
       </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q9" s="38">
+        <f>G$2*D9*D9+I$2*D9+K$2</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>2</v>
+      </c>
+      <c r="D10" s="37">
+        <v>9.5</v>
       </c>
       <c r="F10" s="7">
         <f>B$2*M9</f>
@@ -4721,22 +4847,29 @@
         <f t="shared" ref="O10:O22" si="1">I10-K10</f>
         <v>184.22000000000008</v>
       </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q10" s="38">
+        <f>G$2*D10*D10+I$2*D10+K$2</f>
+        <v>209.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>3</v>
       </c>
+      <c r="D11" s="37">
+        <v>9</v>
+      </c>
       <c r="F11" s="7">
-        <f t="shared" ref="F11:F53" si="2">B$2*M10</f>
+        <f>B$2*M10</f>
         <v>-15.120000000000005</v>
       </c>
       <c r="G11" s="33">
-        <f t="shared" ref="G11:G53" si="3">G10-F11</f>
+        <f t="shared" ref="G11:G53" si="2">G10-F11</f>
         <v>6.2200000000000024</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="8">
-        <f t="shared" ref="I11:I53" si="4">G$2*G11*G11+I$2*G11+K$2</f>
+        <f t="shared" ref="I11:I53" si="3">G$2*G11*G11+I$2*G11+K$2</f>
         <v>99.816800000000057</v>
       </c>
       <c r="J11" s="1"/>
@@ -4746,29 +4879,36 @@
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="10">
-        <f t="shared" ref="M11:M53" si="5">K11</f>
+        <f t="shared" ref="M11:M53" si="4">K11</f>
         <v>26.88000000000001</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="1"/>
         <v>72.936800000000048</v>
       </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q11" s="38">
+        <f>G$2*D11*D11+I$2*D11+K$2</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>4</v>
       </c>
+      <c r="D12" s="37">
+        <v>8.5</v>
+      </c>
       <c r="F12" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M11</f>
         <v>12.096000000000005</v>
       </c>
       <c r="G12" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-5.876000000000003</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>67.302752000000055</v>
       </c>
       <c r="J12" s="1"/>
@@ -4778,29 +4918,36 @@
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-21.504000000000012</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="1"/>
         <v>88.806752000000074</v>
       </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q12" s="38">
+        <f>G$2*D12*D12+I$2*D12+K$2</f>
+        <v>171.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>5</v>
       </c>
+      <c r="D13" s="37">
+        <v>8</v>
+      </c>
       <c r="F13" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M12</f>
         <v>-9.6768000000000054</v>
       </c>
       <c r="G13" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.8008000000000024</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>46.493761280000044</v>
       </c>
       <c r="J13" s="1"/>
@@ -4810,29 +4957,36 @@
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>17.20320000000001</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="1"/>
         <v>29.290561280000034</v>
       </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q13" s="38">
+        <f>G$2*D13*D13+I$2*D13+K$2</f>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>6</v>
       </c>
+      <c r="D14" s="37">
+        <v>7.5</v>
+      </c>
       <c r="F14" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M13</f>
         <v>7.7414400000000043</v>
       </c>
       <c r="G14" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-3.9406400000000019</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>33.176007219200031</v>
       </c>
       <c r="J14" s="1"/>
@@ -4842,29 +4996,36 @@
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-13.762560000000008</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" si="1"/>
         <v>46.938567219200038</v>
       </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q14" s="38">
+        <f>G$2*D14*D14+I$2*D14+K$2</f>
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>7</v>
       </c>
+      <c r="D15" s="37">
+        <v>7</v>
+      </c>
       <c r="F15" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M14</f>
         <v>-6.193152000000004</v>
       </c>
       <c r="G15" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.2525120000000021</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>24.652644620288022</v>
       </c>
       <c r="J15" s="1"/>
@@ -4874,29 +5035,36 @@
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11.010048000000008</v>
       </c>
       <c r="O15" s="1">
         <f t="shared" si="1"/>
         <v>13.642596620288014</v>
       </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q15" s="38">
+        <f>G$2*D15*D15+I$2*D15+K$2</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>8</v>
       </c>
+      <c r="D16" s="37">
+        <v>6.5</v>
+      </c>
       <c r="F16" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M15</f>
         <v>4.9545216000000041</v>
       </c>
       <c r="G16" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-2.702009600000002</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>19.197692556984336</v>
       </c>
       <c r="J16" s="1"/>
@@ -4906,29 +5074,36 @@
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-8.808038400000008</v>
       </c>
       <c r="O16" s="1">
         <f t="shared" si="1"/>
         <v>28.005730956984344</v>
       </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q16" s="38">
+        <f>G$2*D16*D16+I$2*D16+K$2</f>
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>9</v>
       </c>
+      <c r="D17" s="37">
+        <v>6</v>
+      </c>
       <c r="F17" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M16</f>
         <v>-3.9636172800000038</v>
       </c>
       <c r="G17" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.2616076800000018</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>15.706523236469977</v>
       </c>
       <c r="J17" s="1"/>
@@ -4938,29 +5113,36 @@
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.0464307200000071</v>
       </c>
       <c r="O17" s="1">
         <f t="shared" si="1"/>
         <v>8.6600925164699696</v>
       </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q17" s="38">
+        <f>G$2*D17*D17+I$2*D17+K$2</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>10</v>
       </c>
+      <c r="D18" s="37">
+        <v>5.5</v>
+      </c>
       <c r="F18" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M17</f>
         <v>3.1708938240000033</v>
       </c>
       <c r="G18" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.9092861440000015</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>13.472174871340787</v>
       </c>
       <c r="J18" s="1"/>
@@ -4970,29 +5152,36 @@
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-5.6371445760000061</v>
       </c>
       <c r="O18" s="1">
         <f t="shared" si="1"/>
         <v>19.109319447340795</v>
       </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q18" s="38">
+        <f>G$2*D18*D18+I$2*D18+K$2</f>
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>11</v>
       </c>
+      <c r="D19" s="37">
+        <v>5</v>
+      </c>
       <c r="F19" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M18</f>
         <v>-2.5367150592000027</v>
       </c>
       <c r="G19" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.62742891520000121</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12.042191917658103</v>
       </c>
       <c r="J19" s="1"/>
@@ -5002,29 +5191,36 @@
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.5097156608000049</v>
       </c>
       <c r="O19" s="1">
         <f t="shared" si="1"/>
         <v>7.5324762568580983</v>
       </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q19" s="38">
+        <f>G$2*D19*D19+I$2*D19+K$2</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>12</v>
       </c>
+      <c r="D20" s="37">
+        <v>4.5</v>
+      </c>
       <c r="F20" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M19</f>
         <v>2.0293720473600021</v>
       </c>
       <c r="G20" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.4019431321600009</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11.127002827301187</v>
       </c>
       <c r="J20" s="1"/>
@@ -5034,29 +5230,36 @@
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-3.6077725286400035</v>
       </c>
       <c r="O20" s="1">
         <f t="shared" si="1"/>
         <v>14.73477535594119</v>
       </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q20" s="38">
+        <f>G$2*D20*D20+I$2*D20+K$2</f>
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>13</v>
       </c>
+      <c r="D21" s="37">
+        <v>4</v>
+      </c>
       <c r="F21" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M20</f>
         <v>-1.6234976378880017</v>
       </c>
       <c r="G21" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.22155450572800084</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10.541281809472759</v>
       </c>
       <c r="J21" s="1"/>
@@ -5066,29 +5269,36 @@
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.8862180229120034</v>
       </c>
       <c r="O21" s="1">
         <f t="shared" si="1"/>
         <v>7.6550637865607554</v>
       </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q21" s="38">
+        <f>G$2*D21*D21+I$2*D21+K$2</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>14</v>
       </c>
+      <c r="D22" s="37">
+        <v>3.5</v>
+      </c>
       <c r="F22" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M21</f>
         <v>1.2987981103104016</v>
       </c>
       <c r="G22" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.0772436045824008</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10.166420358062567</v>
       </c>
       <c r="J22" s="1"/>
@@ -5098,29 +5308,36 @@
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-2.308974418329603</v>
       </c>
       <c r="O22" s="1">
         <f t="shared" si="1"/>
         <v>12.47539477639217</v>
       </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q22" s="38">
+        <f>G$2*D22*D22+I$2*D22+K$2</f>
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>15</v>
       </c>
+      <c r="D23" s="37">
+        <v>3</v>
+      </c>
       <c r="F23" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M22</f>
         <v>-1.0390384882483215</v>
       </c>
       <c r="G23" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-3.8205116334079303E-2</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.9265090291600426</v>
       </c>
       <c r="J23" s="1"/>
@@ -5130,29 +5347,36 @@
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.8471795346636828</v>
       </c>
       <c r="O23" s="1">
         <f>I23-K23</f>
         <v>8.0793294944963598</v>
       </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q23" s="38">
+        <f>G$2*D23*D23+I$2*D23+K$2</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>16</v>
       </c>
+      <c r="D24" s="37">
+        <v>2.5</v>
+      </c>
       <c r="F24" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M23</f>
         <v>0.83123079059865723</v>
       </c>
       <c r="G24" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.86943590693273654</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.772965778662428</v>
       </c>
       <c r="J24" s="1"/>
@@ -5162,29 +5386,36 @@
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-1.4777436277309461</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" ref="O24:O34" si="6">I24-K24</f>
+        <f t="shared" ref="O24:O34" si="5">I24-K24</f>
         <v>11.250709406393375</v>
       </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q24" s="38">
+        <f>G$2*D24*D24+I$2*D24+K$2</f>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>17</v>
       </c>
+      <c r="D25" s="37">
+        <v>2</v>
+      </c>
       <c r="F25" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M24</f>
         <v>-0.66498463247892581</v>
       </c>
       <c r="G25" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.20445127445381073</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.6746980983439528</v>
       </c>
       <c r="J25" s="1"/>
@@ -5194,29 +5425,36 @@
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="10">
+        <f t="shared" si="4"/>
+        <v>1.1821949021847571</v>
+      </c>
+      <c r="O25" s="1">
         <f t="shared" si="5"/>
-        <v>1.1821949021847571</v>
-      </c>
-      <c r="O25" s="1">
-        <f t="shared" si="6"/>
         <v>8.4925031961591948</v>
       </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q25" s="38">
+        <f>G$2*D25*D25+I$2*D25+K$2</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>18</v>
       </c>
+      <c r="D26" s="37">
+        <v>1.5</v>
+      </c>
       <c r="F26" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M25</f>
         <v>0.53198770598314071</v>
       </c>
       <c r="G26" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.73643898043695144</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.6118067829401301</v>
       </c>
       <c r="J26" s="1"/>
@@ -5226,29 +5464,36 @@
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.94575592174780576</v>
+      </c>
+      <c r="O26" s="1">
         <f t="shared" si="5"/>
-        <v>-0.94575592174780576</v>
-      </c>
-      <c r="O26" s="1">
-        <f t="shared" si="6"/>
         <v>10.557562704687935</v>
       </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q26" s="38">
+        <f>G$2*D26*D26+I$2*D26+K$2</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>19</v>
       </c>
+      <c r="D27" s="37">
+        <v>1</v>
+      </c>
       <c r="F27" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M26</f>
         <v>-0.42559016478651263</v>
       </c>
       <c r="G27" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.31084881565043881</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.5715563410816831</v>
       </c>
       <c r="J27" s="1"/>
@@ -5258,29 +5503,36 @@
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="10">
+        <f t="shared" si="4"/>
+        <v>0.75660473739824474</v>
+      </c>
+      <c r="O27" s="1">
         <f t="shared" si="5"/>
-        <v>0.75660473739824474</v>
-      </c>
-      <c r="O27" s="1">
-        <f t="shared" si="6"/>
         <v>8.8149516036834381</v>
       </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q27" s="38">
+        <f>G$2*D27*D27+I$2*D27+K$2</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>20</v>
       </c>
+      <c r="D28" s="37">
+        <v>0.5</v>
+      </c>
       <c r="F28" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M27</f>
         <v>0.34047213182921016</v>
       </c>
       <c r="G28" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.65132094747964897</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.545796058292277</v>
       </c>
       <c r="J28" s="1"/>
@@ -5290,29 +5542,36 @@
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.60528378991859588</v>
+      </c>
+      <c r="O28" s="1">
         <f t="shared" si="5"/>
-        <v>-0.60528378991859588</v>
-      </c>
-      <c r="O28" s="1">
-        <f t="shared" si="6"/>
         <v>10.151079848210873</v>
       </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q28" s="38">
+        <f>G$2*D28*D28+I$2*D28+K$2</f>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>21</v>
       </c>
+      <c r="D29" s="37">
+        <v>0</v>
+      </c>
       <c r="F29" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M28</f>
         <v>-0.27237770546336815</v>
       </c>
       <c r="G29" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.37894324201628082</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.5293094773070575</v>
       </c>
       <c r="J29" s="1"/>
@@ -5322,29 +5581,36 @@
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="10">
+        <f t="shared" si="4"/>
+        <v>0.48422703193487671</v>
+      </c>
+      <c r="O29" s="1">
         <f t="shared" si="5"/>
-        <v>0.48422703193487671</v>
-      </c>
-      <c r="O29" s="1">
-        <f t="shared" si="6"/>
         <v>9.0450824453721808</v>
       </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q29" s="38">
+        <f>G$2*D29*D29+I$2*D29+K$2</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>22</v>
       </c>
+      <c r="D30" s="37">
+        <v>-0.5</v>
+      </c>
       <c r="F30" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M29</f>
         <v>0.21790216437069451</v>
       </c>
       <c r="G30" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.59684540638697536</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.5187580654765167</v>
       </c>
       <c r="J30" s="1"/>
@@ -5354,29 +5620,36 @@
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.38738162554790145</v>
+      </c>
+      <c r="O30" s="1">
         <f t="shared" si="5"/>
-        <v>-0.38738162554790145</v>
-      </c>
-      <c r="O30" s="1">
-        <f t="shared" si="6"/>
         <v>9.9061396910244177</v>
       </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q30" s="38">
+        <f>G$2*D30*D30+I$2*D30+K$2</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>23</v>
       </c>
+      <c r="D31" s="37">
+        <v>-1</v>
+      </c>
       <c r="F31" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M30</f>
         <v>-0.17432173149655567</v>
       </c>
       <c r="G31" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.4225236748904197</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.5120051619049715</v>
       </c>
       <c r="J31" s="1"/>
@@ -5386,29 +5659,36 @@
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="10">
+        <f t="shared" si="4"/>
+        <v>0.30990530043832121</v>
+      </c>
+      <c r="O31" s="1">
         <f t="shared" si="5"/>
-        <v>0.30990530043832121</v>
-      </c>
-      <c r="O31" s="1">
-        <f t="shared" si="6"/>
         <v>9.2020998614666496</v>
       </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q31" s="38">
+        <f>G$2*D31*D31+I$2*D31+K$2</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>24</v>
       </c>
+      <c r="D32" s="37">
+        <v>-1.5</v>
+      </c>
       <c r="F32" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M31</f>
         <v>0.13945738519724454</v>
       </c>
       <c r="G32" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.56198106008766424</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.5076833036191815</v>
       </c>
       <c r="J32" s="1"/>
@@ -5418,29 +5698,36 @@
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.24792424035065697</v>
+      </c>
+      <c r="O32" s="1">
         <f t="shared" si="5"/>
-        <v>-0.24792424035065697</v>
-      </c>
-      <c r="O32" s="1">
-        <f t="shared" si="6"/>
         <v>9.7556075439698375</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q32" s="38">
+        <f>G$2*D32*D32+I$2*D32+K$2</f>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>25</v>
       </c>
+      <c r="D33" s="37">
+        <v>-2</v>
+      </c>
       <c r="F33" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M32</f>
         <v>-0.11156590815779564</v>
       </c>
       <c r="G33" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.45041515192986858</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.5049173143162768</v>
       </c>
       <c r="J33" s="1"/>
@@ -5450,29 +5737,36 @@
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="10">
+        <f t="shared" si="4"/>
+        <v>0.19833939228052566</v>
+      </c>
+      <c r="O33" s="1">
         <f t="shared" si="5"/>
-        <v>0.19833939228052566</v>
-      </c>
-      <c r="O33" s="1">
-        <f t="shared" si="6"/>
         <v>9.3065779220357516</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q33" s="38">
+        <f>G$2*D33*D33+I$2*D33+K$2</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>26</v>
       </c>
+      <c r="D34" s="37">
+        <v>-2.5</v>
+      </c>
       <c r="F34" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M33</f>
         <v>8.9252726526236545E-2</v>
       </c>
       <c r="G34" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.53966787845610509</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.5031470811624175</v>
       </c>
       <c r="J34" s="1"/>
@@ -5482,29 +5776,36 @@
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.15867151382442035</v>
+      </c>
+      <c r="O34" s="1">
         <f t="shared" si="5"/>
-        <v>-0.15867151382442035</v>
-      </c>
-      <c r="O34" s="1">
-        <f t="shared" si="6"/>
         <v>9.6618185949868369</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q34" s="38">
+        <f>G$2*D34*D34+I$2*D34+K$2</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>27</v>
       </c>
+      <c r="D35" s="37">
+        <v>-3</v>
+      </c>
       <c r="F35" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M34</f>
         <v>-7.1402181220989167E-2</v>
       </c>
       <c r="G35" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.46826569723511591</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.5020141319439464</v>
       </c>
       <c r="J35" s="1"/>
@@ -5514,25 +5815,32 @@
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.12693721105953637</v>
       </c>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q35" s="38">
+        <f>G$2*D35*D35+I$2*D35+K$2</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>28</v>
       </c>
+      <c r="D36" s="37">
+        <v>-3.5</v>
+      </c>
       <c r="F36" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M35</f>
         <v>5.7121744976791365E-2</v>
       </c>
       <c r="G36" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.52538744221190725</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.5012890444441265</v>
       </c>
       <c r="J36" s="1"/>
@@ -5542,25 +5850,32 @@
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-0.10154976884762901</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q36" s="38">
+        <f>G$2*D36*D36+I$2*D36+K$2</f>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>29</v>
       </c>
+      <c r="D37" s="37">
+        <v>-4</v>
+      </c>
       <c r="F37" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M36</f>
         <v>-4.5697395981433055E-2</v>
       </c>
       <c r="G37" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.47969004623047418</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.5008249884442399</v>
       </c>
       <c r="J37" s="1"/>
@@ -5570,25 +5885,32 @@
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.1239815078103295E-2</v>
       </c>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q37" s="38">
+        <f>G$2*D37*D37+I$2*D37+K$2</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>30</v>
       </c>
+      <c r="D38" s="37">
+        <v>-4.5</v>
+      </c>
       <c r="F38" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M37</f>
         <v>3.6557916785146485E-2</v>
       </c>
       <c r="G38" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.5162479630156207</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.5005279926043134</v>
       </c>
       <c r="J38" s="1"/>
@@ -5598,25 +5920,32 @@
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-6.4991852062482813E-2</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q38" s="38">
+        <f>G$2*D38*D38+I$2*D38+K$2</f>
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>31</v>
       </c>
+      <c r="D39" s="37">
+        <v>-5</v>
+      </c>
       <c r="F39" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M38</f>
         <v>-2.9246333428117267E-2</v>
       </c>
       <c r="G39" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.48700162958750343</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.5003379152667602</v>
       </c>
       <c r="J39" s="1"/>
@@ -5626,25 +5955,32 @@
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.1993481649986295E-2</v>
       </c>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q39" s="38">
+        <f>G$2*D39*D39+I$2*D39+K$2</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>32</v>
       </c>
+      <c r="D40" s="37">
+        <v>-5.5</v>
+      </c>
       <c r="F40" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M39</f>
         <v>2.3397066742493835E-2</v>
       </c>
       <c r="G40" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.51039869632999724</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.5002162657707263</v>
       </c>
       <c r="J40" s="1"/>
@@ -5654,25 +5990,32 @@
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-4.1594785319988947E-2</v>
       </c>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q40" s="38">
+        <f>G$2*D40*D40+I$2*D40+K$2</f>
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>33</v>
       </c>
+      <c r="D41" s="37">
+        <v>-6</v>
+      </c>
       <c r="F41" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M40</f>
         <v>-1.8717653393995028E-2</v>
       </c>
       <c r="G41" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.49168104293600223</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.5001384100932658</v>
       </c>
       <c r="J41" s="1"/>
@@ -5682,25 +6025,32 @@
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.3275828255991069E-2</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q41" s="38">
+        <f>G$2*D41*D41+I$2*D41+K$2</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>34</v>
       </c>
+      <c r="D42" s="37">
+        <v>-6.5</v>
+      </c>
       <c r="F42" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M41</f>
         <v>1.4974122715195982E-2</v>
       </c>
       <c r="G42" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.50665516565119817</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.5000885824596892</v>
       </c>
       <c r="J42" s="1"/>
@@ -5710,25 +6060,32 @@
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-2.6620662604792678E-2</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q42" s="38">
+        <f>G$2*D42*D42+I$2*D42+K$2</f>
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>35</v>
       </c>
+      <c r="D43" s="37">
+        <v>-7</v>
+      </c>
       <c r="F43" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M42</f>
         <v>-1.1979298172156705E-2</v>
       </c>
       <c r="G43" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.49467586747904146</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.5000566927742014</v>
       </c>
       <c r="J43" s="1"/>
@@ -5738,25 +6095,32 @@
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.1296530083834142E-2</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q43" s="38">
+        <f>G$2*D43*D43+I$2*D43+K$2</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>36</v>
       </c>
+      <c r="D44" s="37">
+        <v>-7.5</v>
+      </c>
       <c r="F44" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M43</f>
         <v>9.5834385377253639E-3</v>
       </c>
       <c r="G44" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.50425930601676683</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.5000362833754881</v>
       </c>
       <c r="J44" s="1"/>
@@ -5766,25 +6130,32 @@
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-1.7037224067067314E-2</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q44" s="38">
+        <f>G$2*D44*D44+I$2*D44+K$2</f>
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>37</v>
       </c>
+      <c r="D45" s="37">
+        <v>-8</v>
+      </c>
       <c r="F45" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M44</f>
         <v>-7.6667508301802917E-3</v>
       </c>
       <c r="G45" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.49659255518658652</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.5000232213603137</v>
       </c>
       <c r="J45" s="1"/>
@@ -5794,25 +6165,32 @@
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.362977925365394E-2</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q45" s="38">
+        <f>G$2*D45*D45+I$2*D45+K$2</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>38</v>
       </c>
+      <c r="D46" s="37">
+        <v>-8.5</v>
+      </c>
       <c r="F46" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M45</f>
         <v>6.1334006641442732E-3</v>
       </c>
       <c r="G46" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.50272595585073077</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.5000148616705999</v>
       </c>
       <c r="J46" s="1"/>
@@ -5822,25 +6200,32 @@
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-1.0903823402923063E-2</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q46" s="38">
+        <f>G$2*D46*D46+I$2*D46+K$2</f>
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>39</v>
       </c>
+      <c r="D47" s="37">
+        <v>-9</v>
+      </c>
       <c r="F47" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M46</f>
         <v>-4.9067205313153787E-3</v>
       </c>
       <c r="G47" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.49781923531941541</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.5000095114691838</v>
       </c>
       <c r="J47" s="1"/>
@@ -5850,25 +6235,32 @@
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.7230587223383615E-3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q47" s="38">
+        <f>G$2*D47*D47+I$2*D47+K$2</f>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>40</v>
       </c>
+      <c r="D48" s="37">
+        <v>-9.5</v>
+      </c>
       <c r="F48" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M47</f>
         <v>3.9253764250522629E-3</v>
       </c>
       <c r="G48" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.50174461174446772</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.5000060873402781</v>
       </c>
       <c r="J48" s="1"/>
@@ -5878,25 +6270,32 @@
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-6.9784469778708669E-3</v>
       </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="Q48" s="38">
+        <f>G$2*D48*D48+I$2*D48+K$2</f>
+        <v>171.5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>41</v>
       </c>
+      <c r="D49" s="37">
+        <v>-10</v>
+      </c>
       <c r="F49" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M48</f>
         <v>-3.1403011400418903E-3</v>
       </c>
       <c r="G49" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.49860431060442584</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.5000038958977786</v>
       </c>
       <c r="J49" s="1"/>
@@ -5906,25 +6305,29 @@
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.5827575822966491E-3</v>
       </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="Q49" s="38">
+        <f>G$2*D49*D49+I$2*D49+K$2</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>42</v>
       </c>
       <c r="F50" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M49</f>
         <v>2.5122409120334924E-3</v>
       </c>
       <c r="G50" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.50111655151645929</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.500002493374577</v>
       </c>
       <c r="J50" s="1"/>
@@ -5934,25 +6337,25 @@
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-4.4662060658371416E-3</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>43</v>
       </c>
       <c r="F51" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M50</f>
         <v>-2.0097927296267139E-3</v>
       </c>
       <c r="G51" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.49910675878683258</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.5000015957597306</v>
       </c>
       <c r="J51" s="1"/>
@@ -5962,25 +6365,25 @@
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.5729648526696689E-3</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>44</v>
       </c>
       <c r="F52" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M51</f>
         <v>1.607834183701351E-3</v>
       </c>
       <c r="G52" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.50071459297053389</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.5000010212862271</v>
       </c>
       <c r="J52" s="1"/>
@@ -5990,25 +6393,25 @@
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-2.8583718821355575E-3</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>45</v>
       </c>
       <c r="F53" s="7">
-        <f t="shared" si="2"/>
+        <f>B$2*M52</f>
         <v>-1.286267346961001E-3</v>
       </c>
       <c r="G53" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.49942832562357287</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.5000006536231858</v>
       </c>
       <c r="J53" s="1"/>
@@ -6018,7 +6421,7 @@
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.2866975057085348E-3</v>
       </c>
     </row>
